--- a/download/Calcolatore-BOT.xlsx
+++ b/download/Calcolatore-BOT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sasadangelo/MyStuff/Investimenti/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sasadangelo/github.com/sasadangelo/investire/download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838ABE50-4631-7740-8BE4-4590E936F943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20266903-1954-FC49-BA83-F94B113C2FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14480" xr2:uid="{384A719B-2758-B34C-9A5E-16DC06482511}"/>
+    <workbookView xWindow="6420" yWindow="500" windowWidth="25600" windowHeight="19000" xr2:uid="{384A719B-2758-B34C-9A5E-16DC06482511}"/>
   </bookViews>
   <sheets>
     <sheet name="BOT Calcolatore" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>ISIN</t>
   </si>
@@ -61,21 +61,12 @@
     <t>Imposta</t>
   </si>
   <si>
-    <t>Rendimento Lordo</t>
-  </si>
-  <si>
-    <t>Rendimento Netto</t>
-  </si>
-  <si>
     <t>Data Acquisto (Data Regolamento)</t>
   </si>
   <si>
     <t>Dati Acquisto</t>
   </si>
   <si>
-    <t>Costi</t>
-  </si>
-  <si>
     <t>Commissioni (% sul Prezzo Acquisto)</t>
   </si>
   <si>
@@ -85,24 +76,15 @@
     <t>Prezzo Acquisto (EUR)</t>
   </si>
   <si>
-    <t>Costi Fissi Istituto + Bollo (EUR)</t>
-  </si>
-  <si>
     <t>Lotto (Importo Nominale in EUR)</t>
   </si>
   <si>
     <t>Importo Pagato (EUR)</t>
   </si>
   <si>
-    <t>Costi Fissi, Commissioni e Istituto (EUR)</t>
-  </si>
-  <si>
     <t>Imposte (EUR)</t>
   </si>
   <si>
-    <t>Costo Totale</t>
-  </si>
-  <si>
     <t>Guadagni</t>
   </si>
   <si>
@@ -124,29 +106,137 @@
     <t>Significato dei colori</t>
   </si>
   <si>
-    <t>Questa guida vi aiuterà a comprendere il funzionamento del Calcolatore di BOT, uno strumento che vi aiuterà a calcolare i costi, guadagni e rendimenti dei vostri investimenti in BOT. Come esempio pratico, il calcolatore riporta il calcolo dei costi, guadagni e rendimenti di un BOT da me realmente acquistato il cui nome è BOT 14FB24 ANN, l'ISIN è IT0005532988, un lotto dal valore nominale di 5000 Euro, in data 27/02/2023, ad un prezzo di 96,846.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Area dei Dati da inserire</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Area con la descrizione dei Dati da inserire</t>
-  </si>
-  <si>
-    <t>Area dei dati calcolati automaticamente dal Calcolatore (non toccare i numeri)</t>
-  </si>
-  <si>
     <t>Guadagno Lordo Unitario (EUR)</t>
   </si>
   <si>
     <t>Guadagno Netto Unitario (EUR)</t>
+  </si>
+  <si>
+    <t>Prezzo Emissione</t>
+  </si>
+  <si>
+    <t>Quantità</t>
+  </si>
+  <si>
+    <t>Durata (giorni)</t>
+  </si>
+  <si>
+    <t>Durata Residua (giorni)</t>
+  </si>
+  <si>
+    <t>Commissioni</t>
+  </si>
+  <si>
+    <t>Costi Fissi + Bollo (EUR)</t>
+  </si>
+  <si>
+    <t>Costi Fissi + Commissioni + Bollo (EUR)</t>
+  </si>
+  <si>
+    <t>Il prezzo di emissione di un titolo rappresenta il prezzo iniziale al quale il titolo viene messo in vendita sul mercato, ovvero il prezzo al quale gli investitori possono acquistare il titolo alla sua emissione. In altre parole, il prezzo di emissione rappresenta il valore nominale del titolo al momento della sua prima offerta al pubblico. Questo prezzo di emissione viene fissato dal Tesoro italiano e può variare a seconda delle condizioni di mercato, della durata del titolo e del tasso di interesse offerto.</t>
+  </si>
+  <si>
+    <t>Significato dei campi da inserire</t>
+  </si>
+  <si>
+    <t>La data di scadenza di un BOT rappresenta il momento in cui il titolo cessa di produrre interessi e viene rimborsato dal Tesoro italiano al detentore del titolo stesso. In altre parole, è la data in cui il Tesoro italiano si impegna a rimborsare il valore nominale (100 EUR per ogni BOT) del titolo all'investitore. La data di scadenza viene stabilita al momento dell'emissione del titolo e può variare a seconda della durata del BOT. I BOT italiani hanno di solito una scadenza compresa tra 3 mesi e un anno. È importante tenere presente la data di scadenza quando si investe in un BOT, poiché essa influisce sulla liquidità del titolo e sulla sua capacità di generare rendimenti a lungo termine. Al momento della scadenza, il detentore del titolo riceverà il valore nominale del BOT, indipendentemente dalle variazioni dei tassi di interesse nel corso del periodo di detenzione del titolo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Area con la Descrizione dei Dati da inserire.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Area dei Dati da inserire.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Area dei Dati calcolati automaticamente dal Calcolatore (non toccare i numeri).</t>
+  </si>
+  <si>
+    <t>Data di Acquisto (Data di Regolamento)</t>
+  </si>
+  <si>
+    <t>La Data di Acquisto del BOT del mio esempio è stata il 27/02/2023, ossia la data in cui la Banca ha eseguito l'ordine. Tuttavia, questa data non è molto significativa ai fini dei calcoli perché quella che conta è la Data di Regolamento che è, di solito, 2 giorni dopo. Ovviamente 2 giorni dopo si intende 2 giorni dopo in base al calendario di Borsa che esclude i Sabato, le Domeniche, le Festività, ecc. Quindi la Data di Regolamento del mio ordine è del 01/03/2023 e da questo giorno bisogna contare fino alla scadenza per calcolare la Durata Residua del BOT. Questa durata residua servirà poi per calcolare sia i rendimenti del BOT che l'imposta. Secondo il sito di BorsaItaliana.it la Data di Regolamento è la data in cui una transazione o un contratto devono essere regolati attraverso lo scambio reciproco dei titoli e del loro controvalore monetario.</t>
+  </si>
+  <si>
+    <t>Prezzo di Acquisto</t>
+  </si>
+  <si>
+    <t>Prezzo che l'acquirente paga per acquistare un singolo BOT. Se l'acquisto viene fatto in fase di emissione del titolo questo valore coinciderà con il Prezzo di Emissione. Il valore nominale di un BOT è di 100 Euro. Generalmente il Prezzo di Acquisto è inferiore a questo valore per garantire all'acquirente un guadagno dalla dalla differenza tra il valore nominale e questo valore. Tuttavia, non bisogna stupirsi di casi (non molto frequenti) in cui questo valore può superare quota 100.</t>
+  </si>
+  <si>
+    <t>Il nome del BOT. Tpicamente il formato è BOT GGMMAA PER dove GG sono due numeri che indicano il giorno di scadenza, MM sono due lettere che indicano il mese di scadenza, AA sono due numeri che indicano l'anno di scadenza. Infine, PER è il periodo che può essere annuale (ANN), semestrale (SEM), trimestrale (TRI). Compilando questo campo potrai cliccare i link in basso per accedere alle pagine web dove reperire le informazioni necessarie a questo calcolatore. Nel mio esempio il BOT da me acquistato si chiama BOT 14FB24 ANN perché è un BOT annuale con scadenza 14 Febbraio 2024.</t>
+  </si>
+  <si>
+    <t>International Securities Identification Number, è un codice internazionale che identifica il titolo. Nel mio esempio l'ISIN del mio BOT è IT0005532988.</t>
+  </si>
+  <si>
+    <t>La data di emissione di un BOT è la data in cui il titolo viene emesso per la prima volta dal Tesoro italiano. In altre parole, la data di emissione rappresenta la data in cui il BOT viene messo in vendita sul mercato. A partire da questa data fino alla scadenza avremo la Durata del BOT. Vedremo che la Durata di un BOT è fondamentale nel calcolo dei rendimenti e delle imposte di legge.</t>
+  </si>
+  <si>
+    <t>Min. Commissioni (EUR)</t>
+  </si>
+  <si>
+    <t>Max. Commissioni (EUR)</t>
+  </si>
+  <si>
+    <t>INF</t>
+  </si>
+  <si>
+    <t>Durata Trascorsa (giorni)</t>
+  </si>
+  <si>
+    <t>Prezzo Teorico (EUR)</t>
+  </si>
+  <si>
+    <t>Informazioni BOT</t>
+  </si>
+  <si>
+    <t>Questa guida vi aiuterà a comprendere il funzionamento del Calcolatore di BOT, uno strumento che ho realizzato per aiutarmi a calcolare i costi, guadagni e rendimenti dei miei investimenti in BOT. Come esempio pratico, il calcolatore riporta il calcolo dei costi, guadagni e rendimenti di un BOT da me realmente acquistato il cui nome è BOT 14FB24 ANN, con ISIN IT0005532988. Ho acquistato un lotto dal valore nominale di 5000 Euro, con ordine eseguito dalla Banca il giorno 27/02/2023, ad un prezzo di 96,846.</t>
+  </si>
+  <si>
+    <t>Importo Totale Pagato</t>
+  </si>
+  <si>
+    <t>Importi Acquisto (Costi)</t>
+  </si>
+  <si>
+    <t>Importi Vendita/Scadenza</t>
+  </si>
+  <si>
+    <t>Portafoglio</t>
+  </si>
+  <si>
+    <t>Minusvalenze</t>
+  </si>
+  <si>
+    <t>Prezzo Carico per Cap. Gain (EUR)</t>
+  </si>
+  <si>
+    <t>Plus (+) Minus (-) Valenza Realizzata (EUR)</t>
+  </si>
+  <si>
+    <t>Imponibile (EUR)</t>
+  </si>
+  <si>
+    <t>Imposta sulla PlusValenza (EUR)</t>
+  </si>
+  <si>
+    <t>Minus Valenza Rimanente (EUR)</t>
+  </si>
+  <si>
+    <t>Importo al Netto della Imposta sulla PlusValenza (EUR)</t>
+  </si>
+  <si>
+    <t>Rendimento Lordo %</t>
+  </si>
+  <si>
+    <t>Rendimento Netto %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,6 +256,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -204,12 +302,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -529,11 +627,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -555,31 +742,194 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -591,110 +941,56 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1010,60 +1306,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C8A721-BA1D-A549-9B83-DE9858641FEB}">
-  <dimension ref="B1:N29"/>
+  <dimension ref="B1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="24.83203125" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="13" max="13" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+    <row r="1" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
-      <c r="H2" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
-    </row>
-    <row r="3" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="13"/>
-    </row>
-    <row r="4" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
+    </row>
+    <row r="3" spans="2:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
+    </row>
+    <row r="4" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="58" t="s">
-        <v>26</v>
+      <c r="C4" s="56" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
@@ -1071,499 +1351,1015 @@
       <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="61"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="40"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>0.125</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="61"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="43"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="50"/>
-      <c r="C6" s="59"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="69"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="7">
         <v>44971</v>
       </c>
-      <c r="F6" s="61"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="43"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="51"/>
-      <c r="C7" s="59"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="60"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" s="8">
         <v>96.876999999999995</v>
       </c>
-      <c r="F7" s="61"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="43"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="51"/>
-      <c r="C8" s="60"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="60"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="7">
         <v>45336</v>
       </c>
-      <c r="F8" s="61"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="43"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="64"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="46"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="51"/>
-      <c r="C10" s="58" t="s">
-        <v>11</v>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="60"/>
+      <c r="C10" s="56" t="s">
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="7">
         <v>44986</v>
       </c>
-      <c r="F10" s="61"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="22"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="51"/>
-      <c r="C11" s="59"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="60"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E11" s="8">
         <v>96.846000000000004</v>
       </c>
-      <c r="F11" s="61"/>
+      <c r="F11" s="59"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="32"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="51"/>
-      <c r="C12" s="59"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="60"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E12" s="8">
         <v>0.24</v>
       </c>
-      <c r="F12" s="61"/>
+      <c r="F12" s="59"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="36" t="s">
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="60"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3</v>
+      </c>
+      <c r="F13" s="59"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="60"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="59"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="60"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="F15" s="59"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="60"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="8">
+        <v>5000</v>
+      </c>
+      <c r="F16" s="59"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="11"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="11"/>
+      <c r="C18" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="11"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="15"/>
+      <c r="C20" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="4">
+        <f>E16/100</f>
+        <v>50</v>
+      </c>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="11"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="20">
+        <f>E8-E6</f>
+        <v>365</v>
+      </c>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="11"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="20">
+        <f>E8-E10</f>
+        <v>350</v>
+      </c>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="11"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="20">
+        <f>E10-E6</f>
+        <v>15</v>
+      </c>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="11"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="4">
+        <f>ROUND(E7+(100-E7)*(E23/E21),3)</f>
+        <v>97.004999999999995</v>
+      </c>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="60"/>
+      <c r="C26" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="4">
+        <f>ROUND(E11*E20,2)</f>
+        <v>4842.3</v>
+      </c>
+      <c r="F26" s="59"/>
+    </row>
+    <row r="27" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="60"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="4">
+        <f>ROUND(MIN(MAX(E26*E12/100,E13),E14),2)</f>
+        <v>11.62</v>
+      </c>
+      <c r="F27" s="59"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="60"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="37"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="51"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="1" t="s">
+      <c r="E28" s="4">
+        <f>ROUND(E27+E15,2)</f>
+        <v>15.12</v>
+      </c>
+      <c r="F28" s="59"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="60"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="4">
+        <f>ROUND(((100-E7)*(E22/E21)*E20)*B5,2)</f>
+        <v>18.72</v>
+      </c>
+      <c r="F29" s="59"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="60"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="9">
+        <f>E26+E28+E29</f>
+        <v>4876.1400000000003</v>
+      </c>
+      <c r="F30" s="59"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="11"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="11"/>
+      <c r="C32" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="98">
+        <v>97.020089999999996</v>
+      </c>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="11"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="98">
+        <f>ROUND((E7-E32)*E20,2)</f>
+        <v>-7.15</v>
+      </c>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="11"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="98">
+        <f>IF(E18&gt;E33,0,E18-E33)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="11"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="98">
+        <f>E34*B5</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="11"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="4">
+        <f>IF(E18-E33&lt;0,0,E18-E33)</f>
+        <v>7.15</v>
+      </c>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="11"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="9">
+        <f>E16-E35</f>
+        <v>5000</v>
+      </c>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="61"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="63"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="60"/>
+      <c r="C39" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="27"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="8">
-        <v>5000</v>
-      </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="29"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="62"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="64"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="16"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="51"/>
-      <c r="C16" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="4">
-        <f>ROUND(E11*E14/100,2)</f>
-        <v>4842.3</v>
-      </c>
-      <c r="F16" s="61"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="16"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="51"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="4">
-        <f>ROUND(E16*E12/100+E13,2)</f>
-        <v>15.12</v>
-      </c>
-      <c r="F17" s="61"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="16"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="51"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="4">
-        <f>ROUND(((100-E7)*((E8-E10)/(E8-E6))*(E14/100))*0.125,2)</f>
-        <v>18.72</v>
-      </c>
-      <c r="F18" s="61"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="16"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="51"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="4">
-        <f>E16+E17+E18</f>
-        <v>4876.1400000000003</v>
-      </c>
-      <c r="F19" s="61"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="16"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="62"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="64"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="51"/>
-      <c r="C21" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="D39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="4">
         <f>100-E11</f>
         <v>3.1539999999999964</v>
       </c>
-      <c r="F21" s="61"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="16"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="51"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="4">
-        <f>E14-E16</f>
+      <c r="F39" s="59"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="60"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="4">
+        <f>E16-E26</f>
         <v>157.69999999999982</v>
       </c>
-      <c r="F22" s="61"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="16"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="51"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="9" t="s">
+      <c r="F40" s="59"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="60"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="4">
+        <f>ROUND(E42/E20,2)</f>
+        <v>2.48</v>
+      </c>
+      <c r="F41" s="59"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="60"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="9">
+        <f>E37-E30</f>
+        <v>123.85999999999967</v>
+      </c>
+      <c r="F42" s="59"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="61"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="63"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="60"/>
+      <c r="C44" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="9">
+        <f>ROUND((E39*100/E11)*(365/(E8-E10)),2)</f>
+        <v>3.4</v>
+      </c>
+      <c r="F44" s="59"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="60"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="9">
+        <f>ROUND((E41*100/E11)*(365/(E8-E10)),2)</f>
+        <v>2.67</v>
+      </c>
+      <c r="F45" s="59"/>
+    </row>
+    <row r="46" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="76"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="78"/>
+    </row>
+    <row r="47" spans="2:6" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="55"/>
+    </row>
+    <row r="50" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="66"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="68"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="79"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="81"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="42"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="65"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="45"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="65"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="45"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="65"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="45"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="83"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="84"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="85"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="86"/>
+      <c r="G57" s="86"/>
+      <c r="H57" s="87"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="21"/>
+      <c r="C58" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="94"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="94"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="95"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="22"/>
+      <c r="C59" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="94"/>
+      <c r="E59" s="94"/>
+      <c r="F59" s="94"/>
+      <c r="G59" s="94"/>
+      <c r="H59" s="95"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="23"/>
+      <c r="C60" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="94"/>
+      <c r="E60" s="94"/>
+      <c r="F60" s="94"/>
+      <c r="G60" s="94"/>
+      <c r="H60" s="95"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="83"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="84"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="85"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="87"/>
+    </row>
+    <row r="63" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="88"/>
+      <c r="E63" s="88"/>
+      <c r="F63" s="88"/>
+      <c r="G63" s="88"/>
+      <c r="H63" s="89"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B64" s="90"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="88"/>
+      <c r="E64" s="88"/>
+      <c r="F64" s="88"/>
+      <c r="G64" s="88"/>
+      <c r="H64" s="89"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="90"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="88"/>
+      <c r="E65" s="88"/>
+      <c r="F65" s="88"/>
+      <c r="G65" s="88"/>
+      <c r="H65" s="89"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="90"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="88"/>
+      <c r="E66" s="88"/>
+      <c r="F66" s="88"/>
+      <c r="G66" s="88"/>
+      <c r="H66" s="89"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B67" s="90"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="88"/>
+      <c r="E67" s="88"/>
+      <c r="F67" s="88"/>
+      <c r="G67" s="88"/>
+      <c r="H67" s="89"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B68" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="34"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B69" s="39"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="37"/>
+    </row>
+    <row r="70" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" s="91"/>
+      <c r="E70" s="91"/>
+      <c r="F70" s="91"/>
+      <c r="G70" s="91"/>
+      <c r="H70" s="92"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B71" s="90"/>
+      <c r="C71" s="91"/>
+      <c r="D71" s="91"/>
+      <c r="E71" s="91"/>
+      <c r="F71" s="91"/>
+      <c r="G71" s="91"/>
+      <c r="H71" s="92"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B72" s="90"/>
+      <c r="C72" s="91"/>
+      <c r="D72" s="91"/>
+      <c r="E72" s="91"/>
+      <c r="F72" s="91"/>
+      <c r="G72" s="91"/>
+      <c r="H72" s="92"/>
+    </row>
+    <row r="73" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" s="88"/>
+      <c r="E73" s="88"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="88"/>
+      <c r="H73" s="89"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B74" s="90"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="88"/>
+      <c r="E74" s="88"/>
+      <c r="F74" s="88"/>
+      <c r="G74" s="88"/>
+      <c r="H74" s="89"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B75" s="90"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="88"/>
+      <c r="E75" s="88"/>
+      <c r="F75" s="88"/>
+      <c r="G75" s="88"/>
+      <c r="H75" s="89"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B76" s="90"/>
+      <c r="C76" s="88"/>
+      <c r="D76" s="88"/>
+      <c r="E76" s="88"/>
+      <c r="F76" s="88"/>
+      <c r="G76" s="88"/>
+      <c r="H76" s="89"/>
+    </row>
+    <row r="77" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="4">
-        <f>ROUND(E24/(E14/100),2)</f>
-        <v>2.48</v>
-      </c>
-      <c r="F23" s="61"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="16"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="51"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="4">
-        <f>E14-E19</f>
-        <v>123.85999999999967</v>
-      </c>
-      <c r="F24" s="61"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="16"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="62"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="64"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="16"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="51"/>
-      <c r="C26" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="4">
-        <f>ROUND((E21*100/E11)*(365/(E8-E10)),2)</f>
-        <v>3.4</v>
-      </c>
-      <c r="F26" s="61"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="16"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="51"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="4">
-        <f>ROUND((E23*100/E11)*(365/(E8-E10)),2)</f>
-        <v>2.67</v>
-      </c>
-      <c r="F27" s="61"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="16"/>
-    </row>
-    <row r="28" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="65"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="67"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="19"/>
-    </row>
-    <row r="29" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="42"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B78" s="49"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="45"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B79" s="49"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="45"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B80" s="49"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="45"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B81" s="49"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="45"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B82" s="49"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="45"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B83" s="39"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="48"/>
+    </row>
+    <row r="84" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="42"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B85" s="51"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="45"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B86" s="51"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="45"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B87" s="51"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="45"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B88" s="51"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="45"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B89" s="51"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="44"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="45"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B90" s="52"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="47"/>
+      <c r="E90" s="47"/>
+      <c r="F90" s="47"/>
+      <c r="G90" s="47"/>
+      <c r="H90" s="48"/>
+    </row>
+    <row r="91" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C91" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91" s="41"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="41"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="42"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B92" s="51"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="44"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="45"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B93" s="51"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="45"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B94" s="52"/>
+      <c r="C94" s="46"/>
+      <c r="D94" s="47"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="47"/>
+      <c r="H94" s="48"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B95" s="30"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="26"/>
+    </row>
+    <row r="96" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="31"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="29"/>
+    </row>
+    <row r="97" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="F21:F24"/>
+  <mergeCells count="45">
+    <mergeCell ref="B50:H51"/>
+    <mergeCell ref="B61:H62"/>
+    <mergeCell ref="B56:H57"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="C73:H76"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="C63:H67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C70:H72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="C91:H94"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="F10:F16"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="B52:H55"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="I14:N14"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="H4:N9"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="C68:H69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C77:H83"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="C84:H90"/>
+    <mergeCell ref="B84:B90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/download/Calcolatore-BOT.xlsx
+++ b/download/Calcolatore-BOT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sasadangelo/github.com/sasadangelo/investire/download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20266903-1954-FC49-BA83-F94B113C2FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCC96D9-FFFE-8C4B-9EC4-71061893BB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="500" windowWidth="25600" windowHeight="19000" xr2:uid="{384A719B-2758-B34C-9A5E-16DC06482511}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14480" xr2:uid="{384A719B-2758-B34C-9A5E-16DC06482511}"/>
   </bookViews>
   <sheets>
     <sheet name="BOT Calcolatore" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
   <si>
     <t>ISIN</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Lotto (Importo Nominale in EUR)</t>
   </si>
   <si>
-    <t>Importo Pagato (EUR)</t>
-  </si>
-  <si>
     <t>Imposte (EUR)</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>Prezzo di Acquisto</t>
   </si>
   <si>
-    <t>Prezzo che l'acquirente paga per acquistare un singolo BOT. Se l'acquisto viene fatto in fase di emissione del titolo questo valore coinciderà con il Prezzo di Emissione. Il valore nominale di un BOT è di 100 Euro. Generalmente il Prezzo di Acquisto è inferiore a questo valore per garantire all'acquirente un guadagno dalla dalla differenza tra il valore nominale e questo valore. Tuttavia, non bisogna stupirsi di casi (non molto frequenti) in cui questo valore può superare quota 100.</t>
-  </si>
-  <si>
     <t>Il nome del BOT. Tpicamente il formato è BOT GGMMAA PER dove GG sono due numeri che indicano il giorno di scadenza, MM sono due lettere che indicano il mese di scadenza, AA sono due numeri che indicano l'anno di scadenza. Infine, PER è il periodo che può essere annuale (ANN), semestrale (SEM), trimestrale (TRI). Compilando questo campo potrai cliccare i link in basso per accedere alle pagine web dove reperire le informazioni necessarie a questo calcolatore. Nel mio esempio il BOT da me acquistato si chiama BOT 14FB24 ANN perché è un BOT annuale con scadenza 14 Febbraio 2024.</t>
   </si>
   <si>
@@ -208,9 +202,6 @@
     <t>Minusvalenze</t>
   </si>
   <si>
-    <t>Prezzo Carico per Cap. Gain (EUR)</t>
-  </si>
-  <si>
     <t>Plus (+) Minus (-) Valenza Realizzata (EUR)</t>
   </si>
   <si>
@@ -223,19 +214,105 @@
     <t>Minus Valenza Rimanente (EUR)</t>
   </si>
   <si>
-    <t>Importo al Netto della Imposta sulla PlusValenza (EUR)</t>
-  </si>
-  <si>
     <t>Rendimento Lordo %</t>
   </si>
   <si>
     <t>Rendimento Netto %</t>
+  </si>
+  <si>
+    <t>Importo Rimborsato (EUR)</t>
+  </si>
+  <si>
+    <t>Importo Secco (EUR)</t>
+  </si>
+  <si>
+    <t>Prezzo di Carico per il Capital Gain (EUR)</t>
+  </si>
+  <si>
+    <t>Per ogni acquisto di BOT che fate con la Banca, quest'ultima vi chiede il pagamento di una commissione che, tipicamente è espresso in valore percentuale sul Prezzo di acquisto. Nel caso di esempio precompilato ho inserito un valore di 0,24 perché la mia Banca prende lo 0,24% di commissioni</t>
+  </si>
+  <si>
+    <t>Alcune Banche come la mia fissano un valore minimo per le commissioni. Nel mio caso questo valore minimo è 3 Euro. Ciò significa che la Banca, per ogni transazione vuole guadagnare almeno 3 Euro di commissioni.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcune Banche fissano un tetto massimo per le commissioni. Nel mio caso questo tetto non esiste per cui ho messo un valore INF che significa infinito. </t>
+  </si>
+  <si>
+    <t>Le Banche oltre alle commissioni spesso chiedono ai propri clienti di pagare alcuni costi fissi e spese di bollo. Nel mio caso le spese fisse chieste dalla Banca sono 3 Euro di costi di intermediazione e 0,5 Euro di costi di eseguito.</t>
+  </si>
+  <si>
+    <t>Un BOT ha un valore nominale di 100 Euro e quando lo compri tipicamente lo si acquista a un valore inferiore così che alla scadenza si possa ottenere un guadagno. Tuttavia, non è possibile acquistare un singolo BOT. I BOT vanno acquistati in Lotti con un minimo di 1000 Euro (ossia 10 BOT) e suoi multipli 2000 Euro (20 BOT), 3000 Euro (30 BOT), e così via. Nel mio esempio precompilato ho messo il valore 5000 perché ho acquistato 50 BOT al valore nominale di 5000 Euro. Quando comprate i BOT in Banca non potete specificare la quantità (50 nel mio caso) ma solo il valore del Lotto (5000 nel mio caso).</t>
+  </si>
+  <si>
+    <t>Se sei un principiante o se hai dubbi dopo aver letto questa descrizione lascia questo valore a 0, non avrà grandi impatto sui tuoi calcoli. Questo calcolatore consente di calcolare il recupero delle minusvalenze generate da altri investimenti in portafoglio. Quando compri un BOT, generalmente, paghi in anticipo sia il loro valore (Prezzo Acquisto*Quantità), sia le commissioni, sia le imposte. Quest'ultime sono calcolate sul prezzo di emissione e sono pagate dal primo acquirente, i successivi acquirenti rimborsano all'acquirente precedente la parte di imposta relativa al loro periodo di possesso. Tuttavia, se hai acquistato i BOT ad un prezzo inferiore rispetto a quello di emissione (considerando anche le commissioni) allora hai generato una piccola plusvalenza che va ulteriormente tassata, viceversa avrai una minusvalenza ovviamente non tassata. Minusvalenze di altri investimenti in portafoglio possono essere usate per compensare le plusvalenze dell'investimento che stai valutando. Questo campo serve proprio a inserire le minusvalenze presenti in portafoglio.</t>
+  </si>
+  <si>
+    <t>Significato dei campi calcolati</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">È la quantità di BOT che hai acquistato. Il valore è calcolato come </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quantità=Lotto/100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">È la durata totale del BOT, ossia la differenza in giorni tra Data Scadenza e Data Emissione. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Durata=Data Scadenza - Data Emissione</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Prezzo che l'acquirente paga per acquistare un singolo BOT. Se l'acquisto viene fatto in fase di emissione del titolo questo valore coinciderà con il Prezzo di Emissione. Il valore nominale di un BOT è di 100 Euro. Generalmente il Prezzo di Acquisto è inferiore a questo valore per garantire all'acquirente un guadagno dalla dalla differenza tra il valore nominale e questo valore. Tuttavia, non bisogna stupirsi di casi (non molto frequenti) in cui questo valore può superare quota 100. Questo valore viene anche detto in gergo Corso Secco o Prezzo Secco.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -667,19 +744,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -693,17 +757,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color auto="1"/>
       </left>
@@ -714,13 +767,39 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -767,52 +846,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -851,7 +900,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -917,48 +966,48 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -974,7 +1023,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -983,15 +1032,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1306,15 +1371,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C8A721-BA1D-A549-9B83-DE9858641FEB}">
-  <dimension ref="B1:H97"/>
+  <dimension ref="B1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94:B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" customWidth="1"/>
     <col min="3" max="3" width="24.83203125" customWidth="1"/>
     <col min="4" max="4" width="48.6640625" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
@@ -1323,27 +1388,27 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="2:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="68"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
     </row>
     <row r="4" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="56" t="s">
-        <v>20</v>
+      <c r="C4" s="50" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
@@ -1351,70 +1416,70 @@
       <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="59"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>0.125</v>
       </c>
-      <c r="C5" s="57"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="59"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="69"/>
-      <c r="C6" s="57"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="7">
         <v>44971</v>
       </c>
-      <c r="F6" s="59"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="60"/>
-      <c r="C7" s="57"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="8">
         <v>96.876999999999995</v>
       </c>
-      <c r="F7" s="59"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="60"/>
-      <c r="C8" s="58"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="7">
         <v>45336</v>
       </c>
-      <c r="F8" s="59"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="63"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="60"/>
-      <c r="C10" s="56" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="50" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1423,96 +1488,96 @@
       <c r="E10" s="7">
         <v>44986</v>
       </c>
-      <c r="F10" s="59"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="60"/>
-      <c r="C11" s="57"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="8">
         <v>96.846000000000004</v>
       </c>
-      <c r="F11" s="59"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="60"/>
-      <c r="C12" s="57"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="8">
         <v>0.24</v>
       </c>
-      <c r="F12" s="59"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="60"/>
-      <c r="C13" s="57"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E13" s="8">
         <v>3</v>
       </c>
-      <c r="F13" s="59"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="60"/>
-      <c r="C14" s="57"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="59"/>
+        <v>45</v>
+      </c>
+      <c r="F14" s="53"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="60"/>
-      <c r="C15" s="57"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="8">
         <v>3.5</v>
       </c>
-      <c r="F15" s="59"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="60"/>
-      <c r="C16" s="58"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="28">
         <v>5000</v>
       </c>
-      <c r="F16" s="59"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="11"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="99"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="13"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
-      <c r="C18" s="100" t="s">
-        <v>55</v>
+      <c r="C18" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="8">
         <v>0</v>
@@ -1520,7 +1585,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="11"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
@@ -1528,13 +1593,13 @@
       <c r="F19" s="13"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="15"/>
-      <c r="C20" s="73" t="s">
-        <v>50</v>
+      <c r="C20" s="67" t="s">
+        <v>48</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="4">
         <f>E16/100</f>
@@ -1542,11 +1607,11 @@
       </c>
       <c r="F20" s="14"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
-      <c r="C21" s="74"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="20">
         <f>E8-E6</f>
@@ -1554,11 +1619,11 @@
       </c>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="11"/>
-      <c r="C22" s="74"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="20">
         <f>E8-E10</f>
@@ -1566,11 +1631,11 @@
       </c>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="11"/>
-      <c r="C23" s="74"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E23" s="20">
         <f>E10-E6</f>
@@ -1578,160 +1643,167 @@
       </c>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
-      <c r="C24" s="75"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="4">
-        <f>ROUND(E7+(100-E7)*(E23/E21),3)</f>
-        <v>97.004999999999995</v>
+        <v>47</v>
+      </c>
+      <c r="E24" s="31">
+        <f>E7+(100-E7)*(E23/E21)</f>
+        <v>97.005342465753415</v>
       </c>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="60"/>
-      <c r="C26" s="70" t="s">
-        <v>53</v>
+    <row r="26" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="54"/>
+      <c r="C26" s="64" t="s">
+        <v>51</v>
       </c>
       <c r="D26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="4">
+        <f>E11*E20</f>
+        <v>4842.3</v>
+      </c>
+      <c r="F26" s="53"/>
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="54"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="29">
+        <f>MIN(MAX(E26*E12/100,E13),E14)</f>
+        <v>11.62152</v>
+      </c>
+      <c r="F27" s="53"/>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="54"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="29">
+        <f>E27+E15</f>
+        <v>15.12152</v>
+      </c>
+      <c r="F28" s="53"/>
+      <c r="H28" s="27"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="54"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="4">
-        <f>ROUND(E11*E20,2)</f>
-        <v>4842.3</v>
-      </c>
-      <c r="F26" s="59"/>
-    </row>
-    <row r="27" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="60"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="4">
-        <f>ROUND(MIN(MAX(E26*E12/100,E13),E14),2)</f>
-        <v>11.62</v>
-      </c>
-      <c r="F27" s="59"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="60"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="4">
-        <f>ROUND(E27+E15,2)</f>
-        <v>15.12</v>
-      </c>
-      <c r="F28" s="59"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="60"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="4">
-        <f>ROUND(((100-E7)*(E22/E21)*E20)*B5,2)</f>
-        <v>18.72</v>
-      </c>
-      <c r="F29" s="59"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="60"/>
-      <c r="C30" s="72"/>
+      <c r="E29" s="29">
+        <f>(100-E7)*(E22/E21)*E20*B5</f>
+        <v>18.716609589041123</v>
+      </c>
+      <c r="F29" s="53"/>
+      <c r="H29" s="27"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="54"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="30">
+        <f>E26+E28+E29</f>
+        <v>4876.1381295890405</v>
+      </c>
+      <c r="F30" s="53"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="11"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="11"/>
+      <c r="C32" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="9">
-        <f>E26+E28+E29</f>
-        <v>4876.1400000000003</v>
-      </c>
-      <c r="F30" s="59"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="11"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="11"/>
-      <c r="C32" s="73" t="s">
-        <v>54</v>
-      </c>
       <c r="D32" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="98">
-        <v>97.020089999999996</v>
+        <v>63</v>
+      </c>
+      <c r="E32" s="26">
+        <f>(E26+E27+E15)/E20-E24+E7</f>
+        <v>97.020087934246575</v>
       </c>
       <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H32" s="27"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="11"/>
-      <c r="C33" s="74"/>
+      <c r="C33" s="81"/>
       <c r="D33" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="98">
-        <f>ROUND((E7-E32)*E20,2)</f>
-        <v>-7.15</v>
+        <v>55</v>
+      </c>
+      <c r="E33" s="29">
+        <f>(E7-E32)*E20</f>
+        <v>-7.1543967123290031</v>
       </c>
       <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="11"/>
-      <c r="C34" s="74"/>
+      <c r="C34" s="81"/>
       <c r="D34" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="98">
+        <v>56</v>
+      </c>
+      <c r="E34" s="4">
         <f>IF(E18&gt;E33,0,E18-E33)</f>
         <v>0</v>
       </c>
       <c r="F34" s="13"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="11"/>
-      <c r="C35" s="74"/>
+      <c r="C35" s="81"/>
       <c r="D35" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="98">
+        <v>57</v>
+      </c>
+      <c r="E35" s="4">
         <f>E34*B5</f>
         <v>0</v>
       </c>
       <c r="F35" s="13"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="11"/>
-      <c r="C36" s="74"/>
+      <c r="C36" s="81"/>
       <c r="D36" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="29">
+        <f>IF(E18-E33&lt;0,0,E18-E33)</f>
+        <v>7.1543967123290031</v>
+      </c>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="11"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="E36" s="4">
-        <f>IF(E18-E33&lt;0,0,E18-E33)</f>
-        <v>7.15</v>
-      </c>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="11"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="E37" s="9">
         <f>E16-E35</f>
@@ -1739,528 +1811,528 @@
       </c>
       <c r="F37" s="13"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="61"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="63"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="60"/>
-      <c r="C39" s="73" t="s">
-        <v>16</v>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="55"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="57"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="54"/>
+      <c r="C39" s="67" t="s">
+        <v>15</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E39" s="4">
         <f>100-E11</f>
         <v>3.1539999999999964</v>
       </c>
-      <c r="F39" s="59"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="60"/>
-      <c r="C40" s="74"/>
+      <c r="F39" s="53"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="54"/>
+      <c r="C40" s="81"/>
       <c r="D40" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E40" s="4">
         <f>E16-E26</f>
         <v>157.69999999999982</v>
       </c>
-      <c r="F40" s="59"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="60"/>
-      <c r="C41" s="74"/>
+      <c r="F40" s="53"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="54"/>
+      <c r="C41" s="81"/>
       <c r="D41" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="4">
-        <f>ROUND(E42/E20,2)</f>
-        <v>2.48</v>
-      </c>
-      <c r="F41" s="59"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="60"/>
-      <c r="C42" s="75"/>
+        <v>23</v>
+      </c>
+      <c r="E41" s="29">
+        <f>E42/E20</f>
+        <v>2.4772374082191893</v>
+      </c>
+      <c r="F41" s="53"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="54"/>
+      <c r="C42" s="68"/>
       <c r="D42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="30">
+        <f>E37-E30</f>
+        <v>123.86187041095945</v>
+      </c>
+      <c r="F42" s="53"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="55"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="54"/>
+      <c r="C44" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="9">
-        <f>E37-E30</f>
-        <v>123.85999999999967</v>
-      </c>
-      <c r="F42" s="59"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="61"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="63"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="60"/>
-      <c r="C44" s="73" t="s">
-        <v>19</v>
-      </c>
       <c r="D44" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" s="9">
-        <f>ROUND((E39*100/E11)*(365/(E8-E10)),2)</f>
-        <v>3.4</v>
-      </c>
-      <c r="F44" s="59"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="60"/>
-      <c r="C45" s="75"/>
+        <v>59</v>
+      </c>
+      <c r="E44" s="30">
+        <f>(E39*100/E11)*(365/E22)</f>
+        <v>3.3962904286923825</v>
+      </c>
+      <c r="F44" s="53"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="54"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E45" s="9">
-        <f>ROUND((E41*100/E11)*(365/(E8-E10)),2)</f>
-        <v>2.67</v>
-      </c>
-      <c r="F45" s="59"/>
-    </row>
-    <row r="46" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="76"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="78"/>
-    </row>
-    <row r="47" spans="2:6" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+        <v>60</v>
+      </c>
+      <c r="E45" s="30">
+        <f>(E41*100/E11)*(365/E22)</f>
+        <v>2.6675389027056333</v>
+      </c>
+      <c r="F45" s="53"/>
+    </row>
+    <row r="46" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="69"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="71"/>
+    </row>
+    <row r="47" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="49"/>
+    </row>
+    <row r="50" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="60"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="62"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="72"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="74"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="36"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="59"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="39"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="59"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="39"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="59"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="39"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="55"/>
-    </row>
-    <row r="50" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="66"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="68"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="79"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="81"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="42"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="65"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="45"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="65"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="45"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="65"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="45"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="83"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="84"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="77"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="85"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="86"/>
-      <c r="G57" s="86"/>
-      <c r="H57" s="87"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="80"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="21"/>
-      <c r="C58" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="D58" s="94"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="94"/>
-      <c r="G58" s="94"/>
-      <c r="H58" s="95"/>
+      <c r="C58" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="88"/>
+      <c r="E58" s="88"/>
+      <c r="F58" s="88"/>
+      <c r="G58" s="88"/>
+      <c r="H58" s="89"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="22"/>
-      <c r="C59" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" s="94"/>
-      <c r="E59" s="94"/>
-      <c r="F59" s="94"/>
-      <c r="G59" s="94"/>
-      <c r="H59" s="95"/>
+      <c r="C59" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="88"/>
+      <c r="E59" s="88"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="88"/>
+      <c r="H59" s="89"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="23"/>
-      <c r="C60" s="93" t="s">
+      <c r="C60" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" s="88"/>
+      <c r="E60" s="88"/>
+      <c r="F60" s="88"/>
+      <c r="G60" s="88"/>
+      <c r="H60" s="89"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="76"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="76"/>
+      <c r="H61" s="77"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="78"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="79"/>
+      <c r="H62" s="80"/>
+    </row>
+    <row r="63" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="85"/>
+      <c r="E63" s="85"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="85"/>
+      <c r="H63" s="86"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B64" s="84"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="86"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="84"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="86"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="84"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="85"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="85"/>
+      <c r="H66" s="86"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B67" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="36"/>
+    </row>
+    <row r="68" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="85"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="85"/>
+      <c r="G68" s="85"/>
+      <c r="H68" s="86"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B69" s="84"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="86"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B70" s="84"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="86"/>
+    </row>
+    <row r="71" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="82"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="82"/>
+      <c r="H71" s="83"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B72" s="84"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="82"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="82"/>
+      <c r="H72" s="83"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B73" s="84"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="82"/>
+      <c r="E73" s="82"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="82"/>
+      <c r="H73" s="83"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B74" s="84"/>
+      <c r="C74" s="82"/>
+      <c r="D74" s="82"/>
+      <c r="E74" s="82"/>
+      <c r="F74" s="82"/>
+      <c r="G74" s="82"/>
+      <c r="H74" s="83"/>
+    </row>
+    <row r="75" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="36"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B76" s="43"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="39"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B77" s="43"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="39"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B78" s="43"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="39"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B79" s="43"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="39"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B80" s="43"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="39"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B81" s="33"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="42"/>
+    </row>
+    <row r="82" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D60" s="94"/>
-      <c r="E60" s="94"/>
-      <c r="F60" s="94"/>
-      <c r="G60" s="94"/>
-      <c r="H60" s="95"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="84"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="85"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="87"/>
-    </row>
-    <row r="63" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="D63" s="88"/>
-      <c r="E63" s="88"/>
-      <c r="F63" s="88"/>
-      <c r="G63" s="88"/>
-      <c r="H63" s="89"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="90"/>
-      <c r="C64" s="88"/>
-      <c r="D64" s="88"/>
-      <c r="E64" s="88"/>
-      <c r="F64" s="88"/>
-      <c r="G64" s="88"/>
-      <c r="H64" s="89"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="90"/>
-      <c r="C65" s="88"/>
-      <c r="D65" s="88"/>
-      <c r="E65" s="88"/>
-      <c r="F65" s="88"/>
-      <c r="G65" s="88"/>
-      <c r="H65" s="89"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="90"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="88"/>
-      <c r="F66" s="88"/>
-      <c r="G66" s="88"/>
-      <c r="H66" s="89"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="90"/>
-      <c r="C67" s="88"/>
-      <c r="D67" s="88"/>
-      <c r="E67" s="88"/>
-      <c r="F67" s="88"/>
-      <c r="G67" s="88"/>
-      <c r="H67" s="89"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B68" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="34"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B69" s="39"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="37"/>
-    </row>
-    <row r="70" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="90" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="D70" s="91"/>
-      <c r="E70" s="91"/>
-      <c r="F70" s="91"/>
-      <c r="G70" s="91"/>
-      <c r="H70" s="92"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B71" s="90"/>
-      <c r="C71" s="91"/>
-      <c r="D71" s="91"/>
-      <c r="E71" s="91"/>
-      <c r="F71" s="91"/>
-      <c r="G71" s="91"/>
-      <c r="H71" s="92"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B72" s="90"/>
-      <c r="C72" s="91"/>
-      <c r="D72" s="91"/>
-      <c r="E72" s="91"/>
-      <c r="F72" s="91"/>
-      <c r="G72" s="91"/>
-      <c r="H72" s="92"/>
-    </row>
-    <row r="73" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="C73" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="D73" s="88"/>
-      <c r="E73" s="88"/>
-      <c r="F73" s="88"/>
-      <c r="G73" s="88"/>
-      <c r="H73" s="89"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B74" s="90"/>
-      <c r="C74" s="88"/>
-      <c r="D74" s="88"/>
-      <c r="E74" s="88"/>
-      <c r="F74" s="88"/>
-      <c r="G74" s="88"/>
-      <c r="H74" s="89"/>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B75" s="90"/>
-      <c r="C75" s="88"/>
-      <c r="D75" s="88"/>
-      <c r="E75" s="88"/>
-      <c r="F75" s="88"/>
-      <c r="G75" s="88"/>
-      <c r="H75" s="89"/>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="90"/>
-      <c r="C76" s="88"/>
-      <c r="D76" s="88"/>
-      <c r="E76" s="88"/>
-      <c r="F76" s="88"/>
-      <c r="G76" s="88"/>
-      <c r="H76" s="89"/>
-    </row>
-    <row r="77" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="42"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B78" s="49"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="45"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B79" s="49"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="45"/>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B80" s="49"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="44"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="45"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B81" s="49"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="44"/>
-      <c r="F81" s="44"/>
-      <c r="G81" s="44"/>
-      <c r="H81" s="45"/>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B82" s="49"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="44"/>
-      <c r="F82" s="44"/>
-      <c r="G82" s="44"/>
-      <c r="H82" s="45"/>
+      <c r="C82" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="36"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="39"/>
-      <c r="C83" s="46"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="48"/>
-    </row>
-    <row r="84" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C84" s="40" t="s">
+      <c r="B83" s="45"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="39"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B84" s="45"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="39"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B85" s="45"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="39"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B86" s="45"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="39"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B87" s="45"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="39"/>
+    </row>
+    <row r="88" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="42"/>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B85" s="51"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="44"/>
-      <c r="H85" s="45"/>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B86" s="51"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="44"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="44"/>
-      <c r="H86" s="45"/>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B87" s="51"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="45"/>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B88" s="51"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="44"/>
-      <c r="H88" s="45"/>
+      <c r="C88" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D88" s="35"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="36"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B89" s="51"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="44"/>
-      <c r="F89" s="44"/>
-      <c r="G89" s="44"/>
-      <c r="H89" s="45"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="39"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B90" s="52"/>
-      <c r="C90" s="46"/>
-      <c r="D90" s="47"/>
-      <c r="E90" s="47"/>
-      <c r="F90" s="47"/>
-      <c r="G90" s="47"/>
-      <c r="H90" s="48"/>
-    </row>
-    <row r="91" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="C91" s="40" t="s">
-        <v>41</v>
-      </c>
+      <c r="B90" s="45"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="39"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B91" s="46"/>
+      <c r="C91" s="40"/>
       <c r="D91" s="41"/>
       <c r="E91" s="41"/>
       <c r="F91" s="41"/>
@@ -2268,63 +2340,287 @@
       <c r="H91" s="42"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B92" s="51"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="44"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="44"/>
-      <c r="H92" s="45"/>
+      <c r="B92" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="36"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B93" s="51"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="44"/>
-      <c r="H93" s="45"/>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B94" s="52"/>
-      <c r="C94" s="46"/>
-      <c r="D94" s="47"/>
-      <c r="E94" s="47"/>
-      <c r="F94" s="47"/>
-      <c r="G94" s="47"/>
-      <c r="H94" s="48"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="90"/>
+      <c r="E93" s="90"/>
+      <c r="F93" s="90"/>
+      <c r="G93" s="90"/>
+      <c r="H93" s="39"/>
+    </row>
+    <row r="94" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="D94" s="93"/>
+      <c r="E94" s="93"/>
+      <c r="F94" s="93"/>
+      <c r="G94" s="93"/>
+      <c r="H94" s="94"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B95" s="30"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="25"/>
-      <c r="H95" s="26"/>
-    </row>
-    <row r="96" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="31"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="29"/>
-    </row>
-    <row r="97" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="91"/>
+      <c r="D95" s="91"/>
+      <c r="E95" s="91"/>
+      <c r="F95" s="91"/>
+      <c r="G95" s="91"/>
+      <c r="H95" s="92"/>
+    </row>
+    <row r="96" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D96" s="35"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="36"/>
+    </row>
+    <row r="97" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" s="93" t="s">
+        <v>67</v>
+      </c>
+      <c r="D97" s="93"/>
+      <c r="E97" s="93"/>
+      <c r="F97" s="93"/>
+      <c r="G97" s="93"/>
+      <c r="H97" s="94"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B98" s="33"/>
+      <c r="C98" s="91"/>
+      <c r="D98" s="91"/>
+      <c r="E98" s="91"/>
+      <c r="F98" s="91"/>
+      <c r="G98" s="91"/>
+      <c r="H98" s="92"/>
+    </row>
+    <row r="99" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" s="93"/>
+      <c r="E99" s="93"/>
+      <c r="F99" s="93"/>
+      <c r="G99" s="93"/>
+      <c r="H99" s="94"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B100" s="43"/>
+      <c r="C100" s="95"/>
+      <c r="D100" s="95"/>
+      <c r="E100" s="95"/>
+      <c r="F100" s="95"/>
+      <c r="G100" s="95"/>
+      <c r="H100" s="96"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B101" s="43"/>
+      <c r="C101" s="95"/>
+      <c r="D101" s="95"/>
+      <c r="E101" s="95"/>
+      <c r="F101" s="95"/>
+      <c r="G101" s="95"/>
+      <c r="H101" s="96"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B102" s="43"/>
+      <c r="C102" s="95"/>
+      <c r="D102" s="95"/>
+      <c r="E102" s="95"/>
+      <c r="F102" s="95"/>
+      <c r="G102" s="95"/>
+      <c r="H102" s="96"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B103" s="33"/>
+      <c r="C103" s="91"/>
+      <c r="D103" s="91"/>
+      <c r="E103" s="91"/>
+      <c r="F103" s="91"/>
+      <c r="G103" s="91"/>
+      <c r="H103" s="92"/>
+    </row>
+    <row r="104" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C104" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="D104" s="93"/>
+      <c r="E104" s="93"/>
+      <c r="F104" s="93"/>
+      <c r="G104" s="93"/>
+      <c r="H104" s="94"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B105" s="43"/>
+      <c r="C105" s="95"/>
+      <c r="D105" s="95"/>
+      <c r="E105" s="95"/>
+      <c r="F105" s="95"/>
+      <c r="G105" s="95"/>
+      <c r="H105" s="96"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B106" s="43"/>
+      <c r="C106" s="95"/>
+      <c r="D106" s="95"/>
+      <c r="E106" s="95"/>
+      <c r="F106" s="95"/>
+      <c r="G106" s="95"/>
+      <c r="H106" s="96"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B107" s="43"/>
+      <c r="C107" s="95"/>
+      <c r="D107" s="95"/>
+      <c r="E107" s="95"/>
+      <c r="F107" s="95"/>
+      <c r="G107" s="95"/>
+      <c r="H107" s="96"/>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B108" s="43"/>
+      <c r="C108" s="95"/>
+      <c r="D108" s="95"/>
+      <c r="E108" s="95"/>
+      <c r="F108" s="95"/>
+      <c r="G108" s="95"/>
+      <c r="H108" s="96"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B109" s="43"/>
+      <c r="C109" s="95"/>
+      <c r="D109" s="95"/>
+      <c r="E109" s="95"/>
+      <c r="F109" s="95"/>
+      <c r="G109" s="95"/>
+      <c r="H109" s="96"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B110" s="33"/>
+      <c r="C110" s="91"/>
+      <c r="D110" s="91"/>
+      <c r="E110" s="91"/>
+      <c r="F110" s="91"/>
+      <c r="G110" s="91"/>
+      <c r="H110" s="92"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B111" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="C111" s="76"/>
+      <c r="D111" s="76"/>
+      <c r="E111" s="76"/>
+      <c r="F111" s="76"/>
+      <c r="G111" s="76"/>
+      <c r="H111" s="77"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B112" s="78"/>
+      <c r="C112" s="79"/>
+      <c r="D112" s="79"/>
+      <c r="E112" s="79"/>
+      <c r="F112" s="79"/>
+      <c r="G112" s="79"/>
+      <c r="H112" s="80"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B113" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="D113" s="88"/>
+      <c r="E113" s="88"/>
+      <c r="F113" s="88"/>
+      <c r="G113" s="88"/>
+      <c r="H113" s="89"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B114" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="D114" s="88"/>
+      <c r="E114" s="88"/>
+      <c r="F114" s="88"/>
+      <c r="G114" s="88"/>
+      <c r="H114" s="89"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B115" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B116" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B117" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="58">
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="C104:H110"/>
+    <mergeCell ref="B104:B110"/>
+    <mergeCell ref="B111:H112"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:H98"/>
+    <mergeCell ref="C99:H103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:H93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:H95"/>
     <mergeCell ref="B50:H51"/>
     <mergeCell ref="B61:H62"/>
     <mergeCell ref="B56:H57"/>
     <mergeCell ref="C20:C24"/>
-    <mergeCell ref="C73:H76"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="C63:H67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C70:H72"/>
-    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C71:H74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C63:H66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C68:H70"/>
+    <mergeCell ref="B68:B70"/>
     <mergeCell ref="C59:H59"/>
     <mergeCell ref="C60:H60"/>
     <mergeCell ref="B49:H49"/>
@@ -2338,8 +2634,8 @@
     <mergeCell ref="F44:F45"/>
     <mergeCell ref="B43:F43"/>
     <mergeCell ref="F39:F42"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="C91:H94"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="C88:H91"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="C10:C16"/>
     <mergeCell ref="F26:F30"/>
@@ -2354,12 +2650,11 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C26:C30"/>
-    <mergeCell ref="C68:H69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C77:H83"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="C84:H90"/>
-    <mergeCell ref="B84:B90"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C75:H81"/>
+    <mergeCell ref="B75:B81"/>
+    <mergeCell ref="C82:H87"/>
+    <mergeCell ref="B82:B87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/download/Calcolatore-BOT.xlsx
+++ b/download/Calcolatore-BOT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sasadangelo/github.com/sasadangelo/investire/download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCC96D9-FFFE-8C4B-9EC4-71061893BB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6901A762-48CF-C044-A708-589A903EA15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14480" xr2:uid="{384A719B-2758-B34C-9A5E-16DC06482511}"/>
+    <workbookView xWindow="12000" yWindow="500" windowWidth="25600" windowHeight="14480" xr2:uid="{384A719B-2758-B34C-9A5E-16DC06482511}"/>
   </bookViews>
   <sheets>
     <sheet name="BOT Calcolatore" sheetId="7" r:id="rId1"/>
@@ -121,9 +121,6 @@
     <t>Durata Residua (giorni)</t>
   </si>
   <si>
-    <t>Commissioni</t>
-  </si>
-  <si>
     <t>Costi Fissi + Bollo (EUR)</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
   </si>
   <si>
     <t>Questa guida vi aiuterà a comprendere il funzionamento del Calcolatore di BOT, uno strumento che ho realizzato per aiutarmi a calcolare i costi, guadagni e rendimenti dei miei investimenti in BOT. Come esempio pratico, il calcolatore riporta il calcolo dei costi, guadagni e rendimenti di un BOT da me realmente acquistato il cui nome è BOT 14FB24 ANN, con ISIN IT0005532988. Ho acquistato un lotto dal valore nominale di 5000 Euro, con ordine eseguito dalla Banca il giorno 27/02/2023, ad un prezzo di 96,846.</t>
-  </si>
-  <si>
-    <t>Importo Totale Pagato</t>
   </si>
   <si>
     <t>Importi Acquisto (Costi)</t>
@@ -303,6 +297,12 @@
   </si>
   <si>
     <t>Prezzo che l'acquirente paga per acquistare un singolo BOT. Se l'acquisto viene fatto in fase di emissione del titolo questo valore coinciderà con il Prezzo di Emissione. Il valore nominale di un BOT è di 100 Euro. Generalmente il Prezzo di Acquisto è inferiore a questo valore per garantire all'acquirente un guadagno dalla dalla differenza tra il valore nominale e questo valore. Tuttavia, non bisogna stupirsi di casi (non molto frequenti) in cui questo valore può superare quota 100. Questo valore viene anche detto in gergo Corso Secco o Prezzo Secco.</t>
+  </si>
+  <si>
+    <t>Commissioni (EUR)</t>
+  </si>
+  <si>
+    <t>Importo Totale Pagato (EUR)</t>
   </si>
 </sst>
 </file>
@@ -799,7 +799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -859,11 +859,63 @@
     <xf numFmtId="2" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -873,6 +925,42 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -882,6 +970,48 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -891,26 +1021,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -921,36 +1042,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -963,100 +1054,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1373,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C8A721-BA1D-A549-9B83-DE9858641FEB}">
   <dimension ref="B1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94:B95"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1388,26 +1385,26 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="2:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="91" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1416,70 +1413,70 @@
       <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>0.125</v>
       </c>
-      <c r="C5" s="51"/>
+      <c r="C5" s="92"/>
       <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="53"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="63"/>
-      <c r="C6" s="51"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="7">
         <v>44971</v>
       </c>
-      <c r="F6" s="53"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="54"/>
-      <c r="C7" s="51"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="8">
         <v>96.876999999999995</v>
       </c>
-      <c r="F7" s="53"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="54"/>
-      <c r="C8" s="52"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="7">
         <v>45336</v>
       </c>
-      <c r="F8" s="53"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="55"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="54"/>
-      <c r="C10" s="50" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="91" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1488,79 +1485,79 @@
       <c r="E10" s="7">
         <v>44986</v>
       </c>
-      <c r="F10" s="53"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="54"/>
-      <c r="C11" s="51"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="8">
         <v>96.846000000000004</v>
       </c>
-      <c r="F11" s="53"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="54"/>
-      <c r="C12" s="51"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="8">
         <v>0.24</v>
       </c>
-      <c r="F12" s="53"/>
+      <c r="F12" s="79"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="54"/>
-      <c r="C13" s="51"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="28">
+        <v>3</v>
+      </c>
+      <c r="F13" s="79"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="64"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="8">
-        <v>3</v>
-      </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="54"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="53"/>
+      <c r="F14" s="79"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="54"/>
-      <c r="C15" s="51"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="8">
+        <v>28</v>
+      </c>
+      <c r="E15" s="28">
         <v>3.5</v>
       </c>
-      <c r="F15" s="53"/>
+      <c r="F15" s="79"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="54"/>
-      <c r="C16" s="52"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="93"/>
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="28">
         <v>5000</v>
       </c>
-      <c r="F16" s="53"/>
+      <c r="F16" s="79"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
@@ -1574,10 +1571,10 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
       <c r="C18" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E18" s="8">
         <v>0</v>
@@ -1595,8 +1592,8 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="15"/>
-      <c r="C20" s="67" t="s">
-        <v>48</v>
+      <c r="C20" s="61" t="s">
+        <v>47</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>25</v>
@@ -1609,7 +1606,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
-      <c r="C21" s="81"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="19" t="s">
         <v>26</v>
       </c>
@@ -1621,7 +1618,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="11"/>
-      <c r="C22" s="81"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="19" t="s">
         <v>27</v>
       </c>
@@ -1633,9 +1630,9 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="11"/>
-      <c r="C23" s="81"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" s="20">
         <f>E10-E6</f>
@@ -1645,9 +1642,9 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
-      <c r="C24" s="68"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="31">
         <f>E7+(100-E7)*(E23/E21)</f>
@@ -1663,49 +1660,49 @@
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="54"/>
-      <c r="C26" s="64" t="s">
-        <v>51</v>
+      <c r="B26" s="64"/>
+      <c r="C26" s="95" t="s">
+        <v>49</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E26" s="4">
         <f>E11*E20</f>
         <v>4842.3</v>
       </c>
-      <c r="F26" s="53"/>
+      <c r="F26" s="79"/>
       <c r="H26" s="27"/>
     </row>
     <row r="27" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="54"/>
-      <c r="C27" s="65"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="96"/>
       <c r="D27" s="9" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="E27" s="29">
         <f>MIN(MAX(E26*E12/100,E13),E14)</f>
         <v>11.62152</v>
       </c>
-      <c r="F27" s="53"/>
+      <c r="F27" s="79"/>
       <c r="H27" s="27"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="54"/>
-      <c r="C28" s="65"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" s="29">
         <f>E27+E15</f>
         <v>15.12152</v>
       </c>
-      <c r="F28" s="53"/>
+      <c r="F28" s="79"/>
       <c r="H28" s="27"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="54"/>
-      <c r="C29" s="65"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="9" t="s">
         <v>14</v>
       </c>
@@ -1713,20 +1710,20 @@
         <f>(100-E7)*(E22/E21)*E20*B5</f>
         <v>18.716609589041123</v>
       </c>
-      <c r="F29" s="53"/>
+      <c r="F29" s="79"/>
       <c r="H29" s="27"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="54"/>
-      <c r="C30" s="66"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="97"/>
       <c r="D30" s="9" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E30" s="30">
         <f>E26+E28+E29</f>
         <v>4876.1381295890405</v>
       </c>
-      <c r="F30" s="53"/>
+      <c r="F30" s="79"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="11"/>
@@ -1737,11 +1734,11 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="11"/>
-      <c r="C32" s="67" t="s">
-        <v>52</v>
+      <c r="C32" s="61" t="s">
+        <v>50</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E32" s="26">
         <f>(E26+E27+E15)/E20-E24+E7</f>
@@ -1752,9 +1749,9 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="11"/>
-      <c r="C33" s="81"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E33" s="29">
         <f>(E7-E32)*E20</f>
@@ -1765,9 +1762,9 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="11"/>
-      <c r="C34" s="81"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E34" s="4">
         <f>IF(E18&gt;E33,0,E18-E33)</f>
@@ -1777,9 +1774,9 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="11"/>
-      <c r="C35" s="81"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E35" s="4">
         <f>E34*B5</f>
@@ -1789,9 +1786,9 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="11"/>
-      <c r="C36" s="81"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E36" s="29">
         <f>IF(E18-E33&lt;0,0,E18-E33)</f>
@@ -1801,9 +1798,9 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="11"/>
-      <c r="C37" s="68"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E37" s="9">
         <f>E16-E35</f>
@@ -1812,15 +1809,15 @@
       <c r="F37" s="13"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="55"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="57"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="82"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="54"/>
-      <c r="C39" s="67" t="s">
+      <c r="B39" s="64"/>
+      <c r="C39" s="61" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="9" t="s">
@@ -1830,23 +1827,23 @@
         <f>100-E11</f>
         <v>3.1539999999999964</v>
       </c>
-      <c r="F39" s="53"/>
+      <c r="F39" s="79"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="54"/>
-      <c r="C40" s="81"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="29">
         <f>E16-E26</f>
         <v>157.69999999999982</v>
       </c>
-      <c r="F40" s="53"/>
+      <c r="F40" s="79"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="54"/>
-      <c r="C41" s="81"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="9" t="s">
         <v>23</v>
       </c>
@@ -1854,11 +1851,11 @@
         <f>E42/E20</f>
         <v>2.4772374082191893</v>
       </c>
-      <c r="F41" s="53"/>
+      <c r="F41" s="79"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="54"/>
-      <c r="C42" s="68"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="63"/>
       <c r="D42" s="9" t="s">
         <v>17</v>
       </c>
@@ -1866,719 +1863,719 @@
         <f>E37-E30</f>
         <v>123.86187041095945</v>
       </c>
-      <c r="F42" s="53"/>
+      <c r="F42" s="79"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="55"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="57"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="82"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="54"/>
-      <c r="C44" s="67" t="s">
+      <c r="B44" s="64"/>
+      <c r="C44" s="61" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E44" s="30">
-        <f>(E39*100/E11)*(365/E22)</f>
+        <f>(E39*100/E11)*(E21/E22)</f>
         <v>3.3962904286923825</v>
       </c>
-      <c r="F44" s="53"/>
+      <c r="F44" s="79"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="54"/>
-      <c r="C45" s="68"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="63"/>
       <c r="D45" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E45" s="30">
-        <f>(E41*100/E11)*(365/E22)</f>
+        <f>(E41*100/E11)*(E21/E22)</f>
         <v>2.6675389027056333</v>
       </c>
-      <c r="F45" s="53"/>
+      <c r="F45" s="79"/>
     </row>
     <row r="46" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="69"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="71"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="78"/>
     </row>
     <row r="47" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="47" t="s">
+      <c r="B49" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="49"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="75"/>
     </row>
     <row r="50" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="60"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="62"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="57"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="72"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="74"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="60"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="36"/>
+      <c r="B52" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="54"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="59"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="39"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="69"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="59"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="39"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="69"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="59"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="39"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="69"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="75" t="s">
+      <c r="B56" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="76"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="76"/>
-      <c r="H56" s="77"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="48"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="78"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="80"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="51"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="21"/>
-      <c r="C58" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="D58" s="88"/>
-      <c r="E58" s="88"/>
-      <c r="F58" s="88"/>
-      <c r="G58" s="88"/>
-      <c r="H58" s="89"/>
+      <c r="C58" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="36"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="22"/>
-      <c r="C59" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="D59" s="88"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="88"/>
-      <c r="H59" s="89"/>
+      <c r="C59" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="36"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="23"/>
-      <c r="C60" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="88"/>
-      <c r="H60" s="89"/>
+      <c r="C60" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="36"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" s="76"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="77"/>
+      <c r="B61" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="48"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="78"/>
-      <c r="C62" s="79"/>
-      <c r="D62" s="79"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="79"/>
-      <c r="H62" s="80"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="51"/>
     </row>
     <row r="63" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="84" t="s">
+      <c r="B63" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="D63" s="85"/>
-      <c r="E63" s="85"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="86"/>
+      <c r="C63" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="71"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="84"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="86"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="71"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="84"/>
-      <c r="C65" s="85"/>
-      <c r="D65" s="85"/>
-      <c r="E65" s="85"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="85"/>
-      <c r="H65" s="86"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="70"/>
+      <c r="H65" s="71"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="84"/>
-      <c r="C66" s="85"/>
-      <c r="D66" s="85"/>
-      <c r="E66" s="85"/>
-      <c r="F66" s="85"/>
-      <c r="G66" s="85"/>
-      <c r="H66" s="86"/>
+      <c r="B66" s="72"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="70"/>
+      <c r="H66" s="71"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="54"/>
+    </row>
+    <row r="68" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="36"/>
-    </row>
-    <row r="68" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="84" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="85" t="s">
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="70"/>
+      <c r="H68" s="71"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B69" s="72"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="70"/>
+      <c r="H69" s="71"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B70" s="72"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
+      <c r="G70" s="70"/>
+      <c r="H70" s="71"/>
+    </row>
+    <row r="71" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="89"/>
+      <c r="E71" s="89"/>
+      <c r="F71" s="89"/>
+      <c r="G71" s="89"/>
+      <c r="H71" s="90"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B72" s="72"/>
+      <c r="C72" s="89"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="89"/>
+      <c r="F72" s="89"/>
+      <c r="G72" s="89"/>
+      <c r="H72" s="90"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B73" s="72"/>
+      <c r="C73" s="89"/>
+      <c r="D73" s="89"/>
+      <c r="E73" s="89"/>
+      <c r="F73" s="89"/>
+      <c r="G73" s="89"/>
+      <c r="H73" s="90"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B74" s="72"/>
+      <c r="C74" s="89"/>
+      <c r="D74" s="89"/>
+      <c r="E74" s="89"/>
+      <c r="F74" s="89"/>
+      <c r="G74" s="89"/>
+      <c r="H74" s="90"/>
+    </row>
+    <row r="75" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" s="53"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="53"/>
+      <c r="H75" s="54"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B76" s="44"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="68"/>
+      <c r="E76" s="68"/>
+      <c r="F76" s="68"/>
+      <c r="G76" s="68"/>
+      <c r="H76" s="69"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B77" s="44"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="68"/>
+      <c r="F77" s="68"/>
+      <c r="G77" s="68"/>
+      <c r="H77" s="69"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B78" s="44"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="68"/>
+      <c r="E78" s="68"/>
+      <c r="F78" s="68"/>
+      <c r="G78" s="68"/>
+      <c r="H78" s="69"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B79" s="44"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="68"/>
+      <c r="H79" s="69"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B80" s="44"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="68"/>
+      <c r="E80" s="68"/>
+      <c r="F80" s="68"/>
+      <c r="G80" s="68"/>
+      <c r="H80" s="69"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B81" s="45"/>
+      <c r="C81" s="84"/>
+      <c r="D81" s="85"/>
+      <c r="E81" s="85"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="85"/>
+      <c r="H81" s="86"/>
+    </row>
+    <row r="82" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" s="53"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="54"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B83" s="83"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="68"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="69"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B84" s="83"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="68"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="68"/>
+      <c r="H84" s="69"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B85" s="83"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="69"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B86" s="83"/>
+      <c r="C86" s="67"/>
+      <c r="D86" s="68"/>
+      <c r="E86" s="68"/>
+      <c r="F86" s="68"/>
+      <c r="G86" s="68"/>
+      <c r="H86" s="69"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B87" s="83"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="68"/>
+      <c r="F87" s="68"/>
+      <c r="G87" s="68"/>
+      <c r="H87" s="69"/>
+    </row>
+    <row r="88" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D88" s="53"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="54"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B89" s="83"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="68"/>
+      <c r="F89" s="68"/>
+      <c r="G89" s="68"/>
+      <c r="H89" s="69"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B90" s="83"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="68"/>
+      <c r="E90" s="68"/>
+      <c r="F90" s="68"/>
+      <c r="G90" s="68"/>
+      <c r="H90" s="69"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B91" s="66"/>
+      <c r="C91" s="84"/>
+      <c r="D91" s="85"/>
+      <c r="E91" s="85"/>
+      <c r="F91" s="85"/>
+      <c r="G91" s="85"/>
+      <c r="H91" s="86"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B92" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D92" s="53"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="53"/>
+      <c r="G92" s="53"/>
+      <c r="H92" s="54"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B93" s="66"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="68"/>
+      <c r="F93" s="68"/>
+      <c r="G93" s="68"/>
+      <c r="H93" s="69"/>
+    </row>
+    <row r="94" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D68" s="85"/>
-      <c r="E68" s="85"/>
-      <c r="F68" s="85"/>
-      <c r="G68" s="85"/>
-      <c r="H68" s="86"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B69" s="84"/>
-      <c r="C69" s="85"/>
-      <c r="D69" s="85"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="85"/>
-      <c r="H69" s="86"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B70" s="84"/>
-      <c r="C70" s="85"/>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="H70" s="86"/>
-    </row>
-    <row r="71" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="C71" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="D71" s="82"/>
-      <c r="E71" s="82"/>
-      <c r="F71" s="82"/>
-      <c r="G71" s="82"/>
-      <c r="H71" s="83"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B72" s="84"/>
-      <c r="C72" s="82"/>
-      <c r="D72" s="82"/>
-      <c r="E72" s="82"/>
-      <c r="F72" s="82"/>
-      <c r="G72" s="82"/>
-      <c r="H72" s="83"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B73" s="84"/>
-      <c r="C73" s="82"/>
-      <c r="D73" s="82"/>
-      <c r="E73" s="82"/>
-      <c r="F73" s="82"/>
-      <c r="G73" s="82"/>
-      <c r="H73" s="83"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B74" s="84"/>
-      <c r="C74" s="82"/>
-      <c r="D74" s="82"/>
-      <c r="E74" s="82"/>
-      <c r="F74" s="82"/>
-      <c r="G74" s="82"/>
-      <c r="H74" s="83"/>
-    </row>
-    <row r="75" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="36"/>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="43"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="39"/>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B77" s="43"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="39"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B78" s="43"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="39"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B79" s="43"/>
-      <c r="C79" s="37"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="39"/>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B80" s="43"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="38"/>
-      <c r="H80" s="39"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B81" s="33"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="41"/>
-      <c r="F81" s="41"/>
-      <c r="G81" s="41"/>
-      <c r="H81" s="42"/>
-    </row>
-    <row r="82" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C82" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="36"/>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="45"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="38"/>
-      <c r="H83" s="39"/>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B84" s="45"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="39"/>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B85" s="45"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="39"/>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B86" s="45"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="39"/>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B87" s="45"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="38"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="39"/>
-    </row>
-    <row r="88" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C88" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="36"/>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B89" s="45"/>
-      <c r="C89" s="37"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="39"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B90" s="45"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="39"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B91" s="46"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="41"/>
-      <c r="F91" s="41"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="42"/>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B92" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" s="34" t="s">
+      <c r="C94" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="38"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B95" s="45"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="41"/>
+      <c r="F95" s="41"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="42"/>
+    </row>
+    <row r="96" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="36"/>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B93" s="46"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="90"/>
-      <c r="E93" s="90"/>
-      <c r="F93" s="90"/>
-      <c r="G93" s="90"/>
-      <c r="H93" s="39"/>
-    </row>
-    <row r="94" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C94" s="93" t="s">
+      <c r="D96" s="53"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="53"/>
+      <c r="H96" s="54"/>
+    </row>
+    <row r="97" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D94" s="93"/>
-      <c r="E94" s="93"/>
-      <c r="F94" s="93"/>
-      <c r="G94" s="93"/>
-      <c r="H94" s="94"/>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B95" s="33"/>
-      <c r="C95" s="91"/>
-      <c r="D95" s="91"/>
-      <c r="E95" s="91"/>
-      <c r="F95" s="91"/>
-      <c r="G95" s="91"/>
-      <c r="H95" s="92"/>
-    </row>
-    <row r="96" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="C96" s="34" t="s">
+      <c r="D97" s="37"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="38"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B98" s="45"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="41"/>
+      <c r="G98" s="41"/>
+      <c r="H98" s="42"/>
+    </row>
+    <row r="99" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D96" s="35"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="36"/>
-    </row>
-    <row r="97" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C97" s="93" t="s">
+      <c r="D99" s="37"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="38"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B100" s="44"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="40"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B101" s="44"/>
+      <c r="C101" s="39"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="40"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B102" s="44"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="40"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B103" s="45"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="41"/>
+      <c r="G103" s="41"/>
+      <c r="H103" s="42"/>
+    </row>
+    <row r="104" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D97" s="93"/>
-      <c r="E97" s="93"/>
-      <c r="F97" s="93"/>
-      <c r="G97" s="93"/>
-      <c r="H97" s="94"/>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B98" s="33"/>
-      <c r="C98" s="91"/>
-      <c r="D98" s="91"/>
-      <c r="E98" s="91"/>
-      <c r="F98" s="91"/>
-      <c r="G98" s="91"/>
-      <c r="H98" s="92"/>
-    </row>
-    <row r="99" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99" s="93" t="s">
+      <c r="D104" s="37"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="37"/>
+      <c r="H104" s="38"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B105" s="44"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="39"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="40"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B106" s="44"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="39"/>
+      <c r="F106" s="39"/>
+      <c r="G106" s="39"/>
+      <c r="H106" s="40"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B107" s="44"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="39"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="40"/>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B108" s="44"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="39"/>
+      <c r="F108" s="39"/>
+      <c r="G108" s="39"/>
+      <c r="H108" s="40"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B109" s="44"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="39"/>
+      <c r="G109" s="39"/>
+      <c r="H109" s="40"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B110" s="45"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="41"/>
+      <c r="E110" s="41"/>
+      <c r="F110" s="41"/>
+      <c r="G110" s="41"/>
+      <c r="H110" s="42"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B111" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="D99" s="93"/>
-      <c r="E99" s="93"/>
-      <c r="F99" s="93"/>
-      <c r="G99" s="93"/>
-      <c r="H99" s="94"/>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B100" s="43"/>
-      <c r="C100" s="95"/>
-      <c r="D100" s="95"/>
-      <c r="E100" s="95"/>
-      <c r="F100" s="95"/>
-      <c r="G100" s="95"/>
-      <c r="H100" s="96"/>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B101" s="43"/>
-      <c r="C101" s="95"/>
-      <c r="D101" s="95"/>
-      <c r="E101" s="95"/>
-      <c r="F101" s="95"/>
-      <c r="G101" s="95"/>
-      <c r="H101" s="96"/>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B102" s="43"/>
-      <c r="C102" s="95"/>
-      <c r="D102" s="95"/>
-      <c r="E102" s="95"/>
-      <c r="F102" s="95"/>
-      <c r="G102" s="95"/>
-      <c r="H102" s="96"/>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B103" s="33"/>
-      <c r="C103" s="91"/>
-      <c r="D103" s="91"/>
-      <c r="E103" s="91"/>
-      <c r="F103" s="91"/>
-      <c r="G103" s="91"/>
-      <c r="H103" s="92"/>
-    </row>
-    <row r="104" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C104" s="93" t="s">
+      <c r="C111" s="47"/>
+      <c r="D111" s="47"/>
+      <c r="E111" s="47"/>
+      <c r="F111" s="47"/>
+      <c r="G111" s="47"/>
+      <c r="H111" s="48"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B112" s="49"/>
+      <c r="C112" s="50"/>
+      <c r="D112" s="50"/>
+      <c r="E112" s="50"/>
+      <c r="F112" s="50"/>
+      <c r="G112" s="50"/>
+      <c r="H112" s="51"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B113" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D104" s="93"/>
-      <c r="E104" s="93"/>
-      <c r="F104" s="93"/>
-      <c r="G104" s="93"/>
-      <c r="H104" s="94"/>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B105" s="43"/>
-      <c r="C105" s="95"/>
-      <c r="D105" s="95"/>
-      <c r="E105" s="95"/>
-      <c r="F105" s="95"/>
-      <c r="G105" s="95"/>
-      <c r="H105" s="96"/>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B106" s="43"/>
-      <c r="C106" s="95"/>
-      <c r="D106" s="95"/>
-      <c r="E106" s="95"/>
-      <c r="F106" s="95"/>
-      <c r="G106" s="95"/>
-      <c r="H106" s="96"/>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B107" s="43"/>
-      <c r="C107" s="95"/>
-      <c r="D107" s="95"/>
-      <c r="E107" s="95"/>
-      <c r="F107" s="95"/>
-      <c r="G107" s="95"/>
-      <c r="H107" s="96"/>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B108" s="43"/>
-      <c r="C108" s="95"/>
-      <c r="D108" s="95"/>
-      <c r="E108" s="95"/>
-      <c r="F108" s="95"/>
-      <c r="G108" s="95"/>
-      <c r="H108" s="96"/>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B109" s="43"/>
-      <c r="C109" s="95"/>
-      <c r="D109" s="95"/>
-      <c r="E109" s="95"/>
-      <c r="F109" s="95"/>
-      <c r="G109" s="95"/>
-      <c r="H109" s="96"/>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B110" s="33"/>
-      <c r="C110" s="91"/>
-      <c r="D110" s="91"/>
-      <c r="E110" s="91"/>
-      <c r="F110" s="91"/>
-      <c r="G110" s="91"/>
-      <c r="H110" s="92"/>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B111" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="C111" s="76"/>
-      <c r="D111" s="76"/>
-      <c r="E111" s="76"/>
-      <c r="F111" s="76"/>
-      <c r="G111" s="76"/>
-      <c r="H111" s="77"/>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B112" s="78"/>
-      <c r="C112" s="79"/>
-      <c r="D112" s="79"/>
-      <c r="E112" s="79"/>
-      <c r="F112" s="79"/>
-      <c r="G112" s="79"/>
-      <c r="H112" s="80"/>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B113" s="98" t="s">
-        <v>25</v>
-      </c>
-      <c r="C113" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="D113" s="88"/>
-      <c r="E113" s="88"/>
-      <c r="F113" s="88"/>
-      <c r="G113" s="88"/>
-      <c r="H113" s="89"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="35"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="36"/>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B114" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C114" s="87" t="s">
-        <v>72</v>
-      </c>
-      <c r="D114" s="88"/>
-      <c r="E114" s="88"/>
-      <c r="F114" s="88"/>
-      <c r="G114" s="88"/>
-      <c r="H114" s="89"/>
+      <c r="C114" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D114" s="35"/>
+      <c r="E114" s="35"/>
+      <c r="F114" s="35"/>
+      <c r="G114" s="35"/>
+      <c r="H114" s="36"/>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B115" s="19" t="s">
@@ -2587,55 +2584,17 @@
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B116" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B117" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="C114:H114"/>
-    <mergeCell ref="C104:H110"/>
-    <mergeCell ref="B104:B110"/>
-    <mergeCell ref="B111:H112"/>
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:H98"/>
-    <mergeCell ref="C99:H103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:H93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:H95"/>
-    <mergeCell ref="B50:H51"/>
-    <mergeCell ref="B61:H62"/>
-    <mergeCell ref="B56:H57"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="C71:H74"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="C63:H66"/>
     <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C68:H70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="C88:H91"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="C10:C16"/>
     <mergeCell ref="F26:F30"/>
@@ -2646,15 +2605,53 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:B16"/>
     <mergeCell ref="F4:F8"/>
-    <mergeCell ref="B52:H55"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C26:C30"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:H93"/>
+    <mergeCell ref="C68:H70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:H95"/>
+    <mergeCell ref="B50:H51"/>
+    <mergeCell ref="B61:H62"/>
+    <mergeCell ref="B56:H57"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="C88:H91"/>
+    <mergeCell ref="B52:H55"/>
     <mergeCell ref="C67:H67"/>
     <mergeCell ref="C75:H81"/>
     <mergeCell ref="B75:B81"/>
     <mergeCell ref="C82:H87"/>
     <mergeCell ref="B82:B87"/>
+    <mergeCell ref="C71:H74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C63:H66"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:H98"/>
+    <mergeCell ref="C99:H103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="C104:H110"/>
+    <mergeCell ref="B104:B110"/>
+    <mergeCell ref="B111:H112"/>
+    <mergeCell ref="C113:H113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/download/Calcolatore-BOT.xlsx
+++ b/download/Calcolatore-BOT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sasadangelo/github.com/sasadangelo/investire/download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6901A762-48CF-C044-A708-589A903EA15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734A56DA-79F1-8940-A4B5-AE5C1858A40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="500" windowWidth="25600" windowHeight="14480" xr2:uid="{384A719B-2758-B34C-9A5E-16DC06482511}"/>
+    <workbookView xWindow="2560" yWindow="1120" windowWidth="25600" windowHeight="14480" xr2:uid="{384A719B-2758-B34C-9A5E-16DC06482511}"/>
   </bookViews>
   <sheets>
     <sheet name="BOT Calcolatore" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
   <si>
     <t>ISIN</t>
   </si>
@@ -43,12 +43,6 @@
     <t>Nome</t>
   </si>
   <si>
-    <t>IT0005532988</t>
-  </si>
-  <si>
-    <t>BOT 14FB24 ANN</t>
-  </si>
-  <si>
     <t>Data Emissione</t>
   </si>
   <si>
@@ -122,9 +116,6 @@
   </si>
   <si>
     <t>Costi Fissi + Bollo (EUR)</t>
-  </si>
-  <si>
-    <t>Costi Fissi + Commissioni + Bollo (EUR)</t>
   </si>
   <si>
     <t>Il prezzo di emissione di un titolo rappresenta il prezzo iniziale al quale il titolo viene messo in vendita sul mercato, ovvero il prezzo al quale gli investitori possono acquistare il titolo alla sua emissione. In altre parole, il prezzo di emissione rappresenta il valore nominale del titolo al momento della sua prima offerta al pubblico. Questo prezzo di emissione viene fissato dal Tesoro italiano e può variare a seconda delle condizioni di mercato, della durata del titolo e del tasso di interesse offerto.</t>
@@ -304,6 +295,206 @@
   <si>
     <t>Importo Totale Pagato (EUR)</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">È la durata residua del BOT, ossia il numero di giorni dalla Data di Acquisto alla Data di Scadenza. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Durata Residua</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Data Acquisto </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data Scadenza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">È la durata già trascorsa del BOT, ossia il numero di giorni dalla Data di Emissione alla Data di Acquisto. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Durata Trascorsa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Data Emissione </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data Acquisto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">È il prodotto tra il Prezzo Pagato per la Quantità di BOT Acquistati. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Importo Secco = Prezzo Acquisto * Quantità</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Immaginando una retta di interpolazione che unisce, nel tempo, il Prezzo di Emissione alla Data di Emissione e 100 alla Data di Scadenza, il Prezzo Teorico è il punto della retta con ascisse la Data di Acquisto. Il calcolo di questo Prezzo è importante per capire se l'investimento genera o meno ulteriori plusvalenze da tassare o minusvalenze che possono compensare plusvalenze di altri investimenti. La formula usata è </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prezzo Teorico = Prezzo Emissione + (100 - Prezzo Emission) * (Durata Trascorsa/Durata)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Costi Fissi</t>
+  </si>
+  <si>
+    <t>Costi Fissi + Commissioni</t>
+  </si>
+  <si>
+    <t>IT0005545469</t>
+  </si>
+  <si>
+    <t>BOT 14MG24 ANN</t>
+  </si>
 </sst>
 </file>
 
@@ -313,7 +504,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -341,6 +532,13 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -799,7 +997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -861,7 +1059,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -871,33 +1077,45 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -916,14 +1134,53 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -934,6 +1191,57 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -943,72 +1251,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1032,27 +1274,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1368,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C8A721-BA1D-A549-9B83-DE9858641FEB}">
-  <dimension ref="B1:H117"/>
+  <dimension ref="B1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1385,179 +1606,179 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="2:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="57"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="91" t="s">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="79"/>
+      <c r="E4" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="69"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>0.125</v>
       </c>
-      <c r="C5" s="92"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="69"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="77"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="94"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E6" s="7">
-        <v>44971</v>
-      </c>
-      <c r="F6" s="79"/>
+        <v>45060</v>
+      </c>
+      <c r="F6" s="69"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="64"/>
-      <c r="C7" s="92"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="8">
         <v>96.876999999999995</v>
       </c>
-      <c r="F7" s="79"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="64"/>
-      <c r="C8" s="93"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="7">
         <v>45336</v>
       </c>
-      <c r="F8" s="79"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="80"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="64"/>
-      <c r="C10" s="91" t="s">
-        <v>9</v>
+      <c r="B10" s="70"/>
+      <c r="C10" s="66" t="s">
+        <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" s="7">
         <v>44986</v>
       </c>
-      <c r="F10" s="79"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="64"/>
-      <c r="C11" s="92"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" s="8">
-        <v>96.846000000000004</v>
-      </c>
-      <c r="F11" s="79"/>
+        <v>97.161000000000001</v>
+      </c>
+      <c r="F11" s="69"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="64"/>
-      <c r="C12" s="92"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="8">
-        <v>0.24</v>
-      </c>
-      <c r="F12" s="79"/>
+        <v>0.15</v>
+      </c>
+      <c r="F12" s="69"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="64"/>
-      <c r="C13" s="92"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E13" s="28">
         <v>3</v>
       </c>
-      <c r="F13" s="79"/>
+      <c r="F13" s="69"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="64"/>
-      <c r="C14" s="92"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="79"/>
+        <v>41</v>
+      </c>
+      <c r="F14" s="69"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="64"/>
-      <c r="C15" s="92"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="E15" s="28">
-        <v>3.5</v>
-      </c>
-      <c r="F15" s="79"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="69"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="64"/>
-      <c r="C16" s="93"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E16" s="28">
         <v>5000</v>
       </c>
-      <c r="F16" s="79"/>
+      <c r="F16" s="69"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
@@ -1571,10 +1792,10 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
       <c r="C18" s="24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E18" s="8">
         <v>0</v>
@@ -1592,11 +1813,11 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="15"/>
-      <c r="C20" s="61" t="s">
-        <v>47</v>
+      <c r="C20" s="81" t="s">
+        <v>44</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E20" s="4">
         <f>E16/100</f>
@@ -1606,21 +1827,21 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
-      <c r="C21" s="62"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E21" s="20">
         <f>E8-E6</f>
-        <v>365</v>
+        <v>276</v>
       </c>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="11"/>
-      <c r="C22" s="62"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E22" s="20">
         <f>E8-E10</f>
@@ -1630,25 +1851,25 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="11"/>
-      <c r="C23" s="62"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E23" s="20">
         <f>E10-E6</f>
-        <v>15</v>
+        <v>-74</v>
       </c>
       <c r="F23" s="13"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
-      <c r="C24" s="63"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E24" s="31">
         <f>E7+(100-E7)*(E23/E21)</f>
-        <v>97.005342465753415</v>
+        <v>96.039673913043472</v>
       </c>
       <c r="F24" s="13"/>
     </row>
@@ -1660,70 +1881,70 @@
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="64"/>
-      <c r="C26" s="95" t="s">
-        <v>49</v>
+      <c r="B26" s="70"/>
+      <c r="C26" s="78" t="s">
+        <v>46</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E26" s="4">
         <f>E11*E20</f>
-        <v>4842.3</v>
-      </c>
-      <c r="F26" s="79"/>
+        <v>4858.05</v>
+      </c>
+      <c r="F26" s="69"/>
       <c r="H26" s="27"/>
     </row>
     <row r="27" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="64"/>
-      <c r="C27" s="96"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="79"/>
       <c r="D27" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E27" s="29">
         <f>MIN(MAX(E26*E12/100,E13),E14)</f>
-        <v>11.62152</v>
-      </c>
-      <c r="F27" s="79"/>
+        <v>7.2870749999999997</v>
+      </c>
+      <c r="F27" s="69"/>
       <c r="H27" s="27"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="64"/>
-      <c r="C28" s="96"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="79"/>
       <c r="D28" s="10" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="E28" s="29">
         <f>E27+E15</f>
-        <v>15.12152</v>
-      </c>
-      <c r="F28" s="79"/>
+        <v>7.2870749999999997</v>
+      </c>
+      <c r="F28" s="69"/>
       <c r="H28" s="27"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="64"/>
-      <c r="C29" s="96"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E29" s="29">
         <f>(100-E7)*(E22/E21)*E20*B5</f>
-        <v>18.716609589041123</v>
-      </c>
-      <c r="F29" s="79"/>
+        <v>24.752038043478301</v>
+      </c>
+      <c r="F29" s="69"/>
       <c r="H29" s="27"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="64"/>
-      <c r="C30" s="97"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="80"/>
       <c r="D30" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E30" s="30">
         <f>E26+E28+E29</f>
-        <v>4876.1381295890405</v>
-      </c>
-      <c r="F30" s="79"/>
+        <v>4890.0891130434784</v>
+      </c>
+      <c r="F30" s="69"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="11"/>
@@ -1734,37 +1955,37 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="11"/>
-      <c r="C32" s="61" t="s">
-        <v>50</v>
+      <c r="C32" s="81" t="s">
+        <v>47</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E32" s="26">
         <f>(E26+E27+E15)/E20-E24+E7</f>
-        <v>97.020087934246575</v>
+        <v>98.144067586956524</v>
       </c>
       <c r="F32" s="13"/>
       <c r="H32" s="27"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="11"/>
-      <c r="C33" s="62"/>
+      <c r="C33" s="82"/>
       <c r="D33" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E33" s="29">
         <f>(E7-E32)*E20</f>
-        <v>-7.1543967123290031</v>
+        <v>-63.353379347826433</v>
       </c>
       <c r="F33" s="13"/>
       <c r="H33" s="27"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="11"/>
-      <c r="C34" s="62"/>
+      <c r="C34" s="82"/>
       <c r="D34" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E34" s="4">
         <f>IF(E18&gt;E33,0,E18-E33)</f>
@@ -1774,9 +1995,9 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="11"/>
-      <c r="C35" s="62"/>
+      <c r="C35" s="82"/>
       <c r="D35" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E35" s="4">
         <f>E34*B5</f>
@@ -1786,21 +2007,21 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="11"/>
-      <c r="C36" s="62"/>
+      <c r="C36" s="82"/>
       <c r="D36" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E36" s="29">
         <f>IF(E18-E33&lt;0,0,E18-E33)</f>
-        <v>7.1543967123290031</v>
+        <v>63.353379347826433</v>
       </c>
       <c r="F36" s="13"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="11"/>
-      <c r="C37" s="63"/>
+      <c r="C37" s="83"/>
       <c r="D37" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E37" s="9">
         <f>E16-E35</f>
@@ -1809,792 +2030,887 @@
       <c r="F37" s="13"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="80"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="82"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="73"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="64"/>
-      <c r="C39" s="61" t="s">
-        <v>15</v>
+      <c r="B39" s="70"/>
+      <c r="C39" s="81" t="s">
+        <v>13</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E39" s="4">
         <f>100-E11</f>
-        <v>3.1539999999999964</v>
-      </c>
-      <c r="F39" s="79"/>
+        <v>2.8389999999999986</v>
+      </c>
+      <c r="F39" s="69"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="64"/>
-      <c r="C40" s="62"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="82"/>
       <c r="D40" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E40" s="29">
         <f>E16-E26</f>
-        <v>157.69999999999982</v>
-      </c>
-      <c r="F40" s="79"/>
+        <v>141.94999999999982</v>
+      </c>
+      <c r="F40" s="69"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="64"/>
-      <c r="C41" s="62"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="82"/>
       <c r="D41" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E41" s="29">
         <f>E42/E20</f>
-        <v>2.4772374082191893</v>
-      </c>
-      <c r="F41" s="79"/>
+        <v>2.1982177391304321</v>
+      </c>
+      <c r="F41" s="69"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="64"/>
-      <c r="C42" s="63"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="83"/>
       <c r="D42" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E42" s="30">
         <f>E37-E30</f>
-        <v>123.86187041095945</v>
-      </c>
-      <c r="F42" s="79"/>
+        <v>109.91088695652161</v>
+      </c>
+      <c r="F42" s="69"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="80"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="82"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="73"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="64"/>
-      <c r="C44" s="61" t="s">
-        <v>18</v>
+      <c r="B44" s="70"/>
+      <c r="C44" s="81" t="s">
+        <v>16</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E44" s="30">
         <f>(E39*100/E11)*(E21/E22)</f>
-        <v>3.3962904286923825</v>
-      </c>
-      <c r="F44" s="79"/>
+        <v>2.304169662430692</v>
+      </c>
+      <c r="F44" s="69"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="64"/>
-      <c r="C45" s="63"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="83"/>
       <c r="D45" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E45" s="30">
         <f>(E41*100/E11)*(E21/E22)</f>
-        <v>2.6675389027056333</v>
-      </c>
-      <c r="F45" s="79"/>
+        <v>1.784102369116354</v>
+      </c>
+      <c r="F45" s="69"/>
     </row>
     <row r="46" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="76"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="78"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="88"/>
     </row>
     <row r="47" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="75"/>
+      <c r="B49" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="65"/>
     </row>
     <row r="50" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="55"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="57"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="76"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="58"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="60"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="96"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="54"/>
+      <c r="B52" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="48"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="88"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="69"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="62"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="88"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="69"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="62"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="88"/>
-      <c r="C55" s="68"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="68"/>
-      <c r="H55" s="69"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="62"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="48"/>
+      <c r="B56" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="54"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="49"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="51"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="57"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="21"/>
-      <c r="C58" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="36"/>
+      <c r="C58" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="38"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="22"/>
-      <c r="C59" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="36"/>
+      <c r="C59" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="38"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="23"/>
-      <c r="C60" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="36"/>
+      <c r="C60" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="38"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="48"/>
+      <c r="B61" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="54"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="49"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="51"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="57"/>
     </row>
     <row r="63" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="72" t="s">
+      <c r="B63" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="71"/>
+      <c r="C63" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="84"/>
+      <c r="H63" s="85"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="72"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="71"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="84"/>
+      <c r="H64" s="85"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="72"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="70"/>
-      <c r="H65" s="71"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="84"/>
+      <c r="H65" s="85"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="72"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="70"/>
-      <c r="H66" s="71"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="84"/>
+      <c r="G66" s="84"/>
+      <c r="H66" s="85"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="54"/>
+      <c r="C67" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="48"/>
     </row>
     <row r="68" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="71"/>
+      <c r="B68" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" s="84"/>
+      <c r="E68" s="84"/>
+      <c r="F68" s="84"/>
+      <c r="G68" s="84"/>
+      <c r="H68" s="85"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B69" s="72"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="70"/>
-      <c r="H69" s="71"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="84"/>
+      <c r="H69" s="85"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B70" s="72"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="70"/>
-      <c r="H70" s="71"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="84"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="84"/>
+      <c r="H70" s="85"/>
     </row>
     <row r="71" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="C71" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="D71" s="89"/>
-      <c r="E71" s="89"/>
-      <c r="F71" s="89"/>
-      <c r="G71" s="89"/>
-      <c r="H71" s="90"/>
+      <c r="B71" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="103" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="103"/>
+      <c r="E71" s="103"/>
+      <c r="F71" s="103"/>
+      <c r="G71" s="103"/>
+      <c r="H71" s="104"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B72" s="72"/>
-      <c r="C72" s="89"/>
-      <c r="D72" s="89"/>
-      <c r="E72" s="89"/>
-      <c r="F72" s="89"/>
-      <c r="G72" s="89"/>
-      <c r="H72" s="90"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="103"/>
+      <c r="D72" s="103"/>
+      <c r="E72" s="103"/>
+      <c r="F72" s="103"/>
+      <c r="G72" s="103"/>
+      <c r="H72" s="104"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B73" s="72"/>
-      <c r="C73" s="89"/>
-      <c r="D73" s="89"/>
-      <c r="E73" s="89"/>
-      <c r="F73" s="89"/>
-      <c r="G73" s="89"/>
-      <c r="H73" s="90"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="103"/>
+      <c r="D73" s="103"/>
+      <c r="E73" s="103"/>
+      <c r="F73" s="103"/>
+      <c r="G73" s="103"/>
+      <c r="H73" s="104"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B74" s="72"/>
-      <c r="C74" s="89"/>
-      <c r="D74" s="89"/>
-      <c r="E74" s="89"/>
-      <c r="F74" s="89"/>
-      <c r="G74" s="89"/>
-      <c r="H74" s="90"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="103"/>
+      <c r="D74" s="103"/>
+      <c r="E74" s="103"/>
+      <c r="F74" s="103"/>
+      <c r="G74" s="103"/>
+      <c r="H74" s="104"/>
     </row>
     <row r="75" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="53"/>
-      <c r="H75" s="54"/>
+      <c r="B75" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="48"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="44"/>
-      <c r="C76" s="67"/>
-      <c r="D76" s="68"/>
-      <c r="E76" s="68"/>
-      <c r="F76" s="68"/>
-      <c r="G76" s="68"/>
-      <c r="H76" s="69"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="62"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B77" s="44"/>
-      <c r="C77" s="67"/>
-      <c r="D77" s="68"/>
-      <c r="E77" s="68"/>
-      <c r="F77" s="68"/>
-      <c r="G77" s="68"/>
-      <c r="H77" s="69"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="62"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B78" s="44"/>
-      <c r="C78" s="67"/>
-      <c r="D78" s="68"/>
-      <c r="E78" s="68"/>
-      <c r="F78" s="68"/>
-      <c r="G78" s="68"/>
-      <c r="H78" s="69"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="61"/>
+      <c r="H78" s="62"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B79" s="44"/>
-      <c r="C79" s="67"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="68"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="68"/>
-      <c r="H79" s="69"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="60"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="62"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B80" s="44"/>
-      <c r="C80" s="67"/>
-      <c r="D80" s="68"/>
-      <c r="E80" s="68"/>
-      <c r="F80" s="68"/>
-      <c r="G80" s="68"/>
-      <c r="H80" s="69"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="62"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B81" s="45"/>
-      <c r="C81" s="84"/>
-      <c r="D81" s="85"/>
-      <c r="E81" s="85"/>
-      <c r="F81" s="85"/>
-      <c r="G81" s="85"/>
-      <c r="H81" s="86"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="98"/>
+      <c r="D81" s="99"/>
+      <c r="E81" s="99"/>
+      <c r="F81" s="99"/>
+      <c r="G81" s="99"/>
+      <c r="H81" s="100"/>
     </row>
     <row r="82" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="C82" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D82" s="53"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="53"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="54"/>
+      <c r="B82" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="48"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="83"/>
-      <c r="C83" s="67"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="68"/>
-      <c r="H83" s="69"/>
+      <c r="B83" s="97"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="61"/>
+      <c r="G83" s="61"/>
+      <c r="H83" s="62"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B84" s="83"/>
-      <c r="C84" s="67"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="68"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="68"/>
-      <c r="H84" s="69"/>
+      <c r="B84" s="97"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="61"/>
+      <c r="H84" s="62"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B85" s="83"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="68"/>
-      <c r="H85" s="69"/>
+      <c r="B85" s="97"/>
+      <c r="C85" s="60"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="62"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B86" s="83"/>
-      <c r="C86" s="67"/>
-      <c r="D86" s="68"/>
-      <c r="E86" s="68"/>
-      <c r="F86" s="68"/>
-      <c r="G86" s="68"/>
-      <c r="H86" s="69"/>
+      <c r="B86" s="97"/>
+      <c r="C86" s="60"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="61"/>
+      <c r="H86" s="62"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B87" s="83"/>
-      <c r="C87" s="67"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="68"/>
-      <c r="F87" s="68"/>
-      <c r="G87" s="68"/>
-      <c r="H87" s="69"/>
+      <c r="B87" s="97"/>
+      <c r="C87" s="60"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="62"/>
     </row>
     <row r="88" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="C88" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="D88" s="53"/>
-      <c r="E88" s="53"/>
-      <c r="F88" s="53"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="54"/>
+      <c r="B88" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" s="47"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="48"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B89" s="83"/>
-      <c r="C89" s="67"/>
-      <c r="D89" s="68"/>
-      <c r="E89" s="68"/>
-      <c r="F89" s="68"/>
-      <c r="G89" s="68"/>
-      <c r="H89" s="69"/>
+      <c r="B89" s="97"/>
+      <c r="C89" s="60"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="61"/>
+      <c r="G89" s="61"/>
+      <c r="H89" s="62"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B90" s="83"/>
-      <c r="C90" s="67"/>
-      <c r="D90" s="68"/>
-      <c r="E90" s="68"/>
-      <c r="F90" s="68"/>
-      <c r="G90" s="68"/>
-      <c r="H90" s="69"/>
+      <c r="B90" s="97"/>
+      <c r="C90" s="60"/>
+      <c r="D90" s="61"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="61"/>
+      <c r="H90" s="62"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B91" s="66"/>
-      <c r="C91" s="84"/>
-      <c r="D91" s="85"/>
-      <c r="E91" s="85"/>
-      <c r="F91" s="85"/>
-      <c r="G91" s="85"/>
-      <c r="H91" s="86"/>
+      <c r="B91" s="59"/>
+      <c r="C91" s="98"/>
+      <c r="D91" s="99"/>
+      <c r="E91" s="99"/>
+      <c r="F91" s="99"/>
+      <c r="G91" s="99"/>
+      <c r="H91" s="100"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B92" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="D92" s="53"/>
-      <c r="E92" s="53"/>
-      <c r="F92" s="53"/>
-      <c r="G92" s="53"/>
-      <c r="H92" s="54"/>
+      <c r="B92" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="48"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B93" s="66"/>
-      <c r="C93" s="67"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="68"/>
-      <c r="G93" s="68"/>
-      <c r="H93" s="69"/>
+      <c r="B93" s="59"/>
+      <c r="C93" s="60"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="61"/>
+      <c r="G93" s="61"/>
+      <c r="H93" s="62"/>
     </row>
     <row r="94" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C94" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="38"/>
+      <c r="B94" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="43"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B95" s="45"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="41"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="41"/>
-      <c r="H95" s="42"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="44"/>
+      <c r="E95" s="44"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="44"/>
+      <c r="H95" s="45"/>
     </row>
     <row r="96" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C96" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96" s="47"/>
+      <c r="E96" s="47"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="48"/>
+    </row>
+    <row r="97" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="43"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B98" s="41"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="44"/>
+      <c r="E98" s="44"/>
+      <c r="F98" s="44"/>
+      <c r="G98" s="44"/>
+      <c r="H98" s="45"/>
+    </row>
+    <row r="99" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="42"/>
+      <c r="G99" s="42"/>
+      <c r="H99" s="43"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B100" s="51"/>
+      <c r="C100" s="49"/>
+      <c r="D100" s="49"/>
+      <c r="E100" s="49"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="49"/>
+      <c r="H100" s="50"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B101" s="51"/>
+      <c r="C101" s="49"/>
+      <c r="D101" s="49"/>
+      <c r="E101" s="49"/>
+      <c r="F101" s="49"/>
+      <c r="G101" s="49"/>
+      <c r="H101" s="50"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B102" s="51"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="49"/>
+      <c r="E102" s="49"/>
+      <c r="F102" s="49"/>
+      <c r="G102" s="49"/>
+      <c r="H102" s="50"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B103" s="41"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="44"/>
+      <c r="E103" s="44"/>
+      <c r="F103" s="44"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="45"/>
+    </row>
+    <row r="104" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C104" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="D96" s="53"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="53"/>
-      <c r="H96" s="54"/>
-    </row>
-    <row r="97" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C97" s="37" t="s">
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="43"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B105" s="51"/>
+      <c r="C105" s="49"/>
+      <c r="D105" s="49"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="49"/>
+      <c r="G105" s="49"/>
+      <c r="H105" s="50"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B106" s="51"/>
+      <c r="C106" s="49"/>
+      <c r="D106" s="49"/>
+      <c r="E106" s="49"/>
+      <c r="F106" s="49"/>
+      <c r="G106" s="49"/>
+      <c r="H106" s="50"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B107" s="51"/>
+      <c r="C107" s="49"/>
+      <c r="D107" s="49"/>
+      <c r="E107" s="49"/>
+      <c r="F107" s="49"/>
+      <c r="G107" s="49"/>
+      <c r="H107" s="50"/>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B108" s="51"/>
+      <c r="C108" s="49"/>
+      <c r="D108" s="49"/>
+      <c r="E108" s="49"/>
+      <c r="F108" s="49"/>
+      <c r="G108" s="49"/>
+      <c r="H108" s="50"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B109" s="51"/>
+      <c r="C109" s="49"/>
+      <c r="D109" s="49"/>
+      <c r="E109" s="49"/>
+      <c r="F109" s="49"/>
+      <c r="G109" s="49"/>
+      <c r="H109" s="50"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B110" s="41"/>
+      <c r="C110" s="44"/>
+      <c r="D110" s="44"/>
+      <c r="E110" s="44"/>
+      <c r="F110" s="44"/>
+      <c r="G110" s="44"/>
+      <c r="H110" s="45"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B111" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="D97" s="37"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="37"/>
-      <c r="H97" s="38"/>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B98" s="45"/>
-      <c r="C98" s="41"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="41"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="41"/>
-      <c r="H98" s="42"/>
-    </row>
-    <row r="99" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D99" s="37"/>
-      <c r="E99" s="37"/>
-      <c r="F99" s="37"/>
-      <c r="G99" s="37"/>
-      <c r="H99" s="38"/>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B100" s="44"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="39"/>
-      <c r="F100" s="39"/>
-      <c r="G100" s="39"/>
-      <c r="H100" s="40"/>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B101" s="44"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="39"/>
-      <c r="F101" s="39"/>
-      <c r="G101" s="39"/>
-      <c r="H101" s="40"/>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B102" s="44"/>
-      <c r="C102" s="39"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="39"/>
-      <c r="F102" s="39"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="40"/>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B103" s="45"/>
-      <c r="C103" s="41"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="41"/>
-      <c r="F103" s="41"/>
-      <c r="G103" s="41"/>
-      <c r="H103" s="42"/>
-    </row>
-    <row r="104" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C104" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="D104" s="37"/>
-      <c r="E104" s="37"/>
-      <c r="F104" s="37"/>
-      <c r="G104" s="37"/>
-      <c r="H104" s="38"/>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B105" s="44"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="39"/>
-      <c r="F105" s="39"/>
-      <c r="G105" s="39"/>
-      <c r="H105" s="40"/>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B106" s="44"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="39"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="40"/>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B107" s="44"/>
-      <c r="C107" s="39"/>
-      <c r="D107" s="39"/>
-      <c r="E107" s="39"/>
-      <c r="F107" s="39"/>
-      <c r="G107" s="39"/>
-      <c r="H107" s="40"/>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B108" s="44"/>
-      <c r="C108" s="39"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="39"/>
-      <c r="F108" s="39"/>
-      <c r="G108" s="39"/>
-      <c r="H108" s="40"/>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B109" s="44"/>
-      <c r="C109" s="39"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="39"/>
-      <c r="F109" s="39"/>
-      <c r="G109" s="39"/>
-      <c r="H109" s="40"/>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B110" s="45"/>
-      <c r="C110" s="41"/>
-      <c r="D110" s="41"/>
-      <c r="E110" s="41"/>
-      <c r="F110" s="41"/>
-      <c r="G110" s="41"/>
-      <c r="H110" s="42"/>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B111" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C111" s="47"/>
-      <c r="D111" s="47"/>
-      <c r="E111" s="47"/>
-      <c r="F111" s="47"/>
-      <c r="G111" s="47"/>
-      <c r="H111" s="48"/>
+      <c r="C111" s="53"/>
+      <c r="D111" s="53"/>
+      <c r="E111" s="53"/>
+      <c r="F111" s="53"/>
+      <c r="G111" s="53"/>
+      <c r="H111" s="54"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B112" s="49"/>
-      <c r="C112" s="50"/>
-      <c r="D112" s="50"/>
-      <c r="E112" s="50"/>
-      <c r="F112" s="50"/>
-      <c r="G112" s="50"/>
-      <c r="H112" s="51"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="56"/>
+      <c r="D112" s="56"/>
+      <c r="E112" s="56"/>
+      <c r="F112" s="56"/>
+      <c r="G112" s="56"/>
+      <c r="H112" s="57"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B113" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D113" s="37"/>
+      <c r="E113" s="37"/>
+      <c r="F113" s="37"/>
+      <c r="G113" s="37"/>
+      <c r="H113" s="38"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B114" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D114" s="37"/>
+      <c r="E114" s="37"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="38"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B115" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C113" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D113" s="35"/>
-      <c r="E113" s="35"/>
-      <c r="F113" s="35"/>
-      <c r="G113" s="35"/>
-      <c r="H113" s="36"/>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B114" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C114" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D114" s="35"/>
-      <c r="E114" s="35"/>
-      <c r="F114" s="35"/>
-      <c r="G114" s="35"/>
-      <c r="H114" s="36"/>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B115" s="19" t="s">
-        <v>27</v>
-      </c>
+      <c r="C115" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D115" s="37"/>
+      <c r="E115" s="37"/>
+      <c r="F115" s="37"/>
+      <c r="G115" s="37"/>
+      <c r="H115" s="38"/>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B116" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B117" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="B116" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C116" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D116" s="37"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="37"/>
+      <c r="G116" s="37"/>
+      <c r="H116" s="38"/>
+    </row>
+    <row r="117" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="C117" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D117" s="42"/>
+      <c r="E117" s="42"/>
+      <c r="F117" s="42"/>
+      <c r="G117" s="42"/>
+      <c r="H117" s="43"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B118" s="92"/>
+      <c r="C118" s="49"/>
+      <c r="D118" s="49"/>
+      <c r="E118" s="49"/>
+      <c r="F118" s="49"/>
+      <c r="G118" s="49"/>
+      <c r="H118" s="50"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B119" s="92"/>
+      <c r="C119" s="49"/>
+      <c r="D119" s="49"/>
+      <c r="E119" s="49"/>
+      <c r="F119" s="49"/>
+      <c r="G119" s="49"/>
+      <c r="H119" s="50"/>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B120" s="93"/>
+      <c r="C120" s="44"/>
+      <c r="D120" s="44"/>
+      <c r="E120" s="44"/>
+      <c r="F120" s="44"/>
+      <c r="G120" s="44"/>
+      <c r="H120" s="45"/>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B121" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C121" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="D121" s="89"/>
+      <c r="E121" s="89"/>
+      <c r="F121" s="89"/>
+      <c r="G121" s="89"/>
+      <c r="H121" s="90"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="B63:B66"/>
+  <mergeCells count="63">
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="C117:H120"/>
+    <mergeCell ref="B50:H51"/>
+    <mergeCell ref="B61:H62"/>
+    <mergeCell ref="B56:H57"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="C88:H91"/>
+    <mergeCell ref="B52:H55"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C75:H81"/>
+    <mergeCell ref="B75:B81"/>
+    <mergeCell ref="C82:H87"/>
+    <mergeCell ref="B82:B87"/>
+    <mergeCell ref="C71:H74"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="C68:H70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C63:H66"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="C10:C16"/>
     <mergeCell ref="F26:F30"/>
@@ -2610,38 +2926,11 @@
     <mergeCell ref="C26:C30"/>
     <mergeCell ref="C20:C24"/>
     <mergeCell ref="C32:C37"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:H93"/>
-    <mergeCell ref="C68:H70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="C115:H115"/>
+    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="B63:B66"/>
     <mergeCell ref="B94:B95"/>
     <mergeCell ref="C94:H95"/>
-    <mergeCell ref="B50:H51"/>
-    <mergeCell ref="B61:H62"/>
-    <mergeCell ref="B56:H57"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="C88:H91"/>
-    <mergeCell ref="B52:H55"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C75:H81"/>
-    <mergeCell ref="B75:B81"/>
-    <mergeCell ref="C82:H87"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="C71:H74"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="C63:H66"/>
     <mergeCell ref="C96:H96"/>
     <mergeCell ref="B97:B98"/>
     <mergeCell ref="C97:H98"/>
@@ -2651,7 +2940,8 @@
     <mergeCell ref="C104:H110"/>
     <mergeCell ref="B104:B110"/>
     <mergeCell ref="B111:H112"/>
-    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:H93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
